--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="الحاوية الاولى" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="الحاوية الثالثة" sheetId="4" r:id="rId3"/>
     <sheet name="الحاوية الرابعة" sheetId="5" r:id="rId4"/>
     <sheet name="الحاوية الخامسة" sheetId="6" r:id="rId5"/>
+    <sheet name="الحاوية السادسة" sheetId="7" r:id="rId6"/>
+    <sheet name="الحاوية 7" sheetId="8" r:id="rId7"/>
+    <sheet name="الحاوية 8" sheetId="9" r:id="rId8"/>
+    <sheet name="الحاوية 9" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
   <si>
     <t>التاريخ</t>
   </si>
@@ -128,9 +132,6 @@
     <t>بيانات الحاوية الخامسة</t>
   </si>
   <si>
-    <t>OF.T10.RAD-03-23</t>
-  </si>
-  <si>
     <t>7961 ل ي ج</t>
   </si>
   <si>
@@ -156,6 +157,69 @@
   </si>
   <si>
     <t xml:space="preserve"> يوجد</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية السادسة</t>
+  </si>
+  <si>
+    <t>TLLu-583964 9</t>
+  </si>
+  <si>
+    <t>3647 ل ق ط</t>
+  </si>
+  <si>
+    <t>5769 ل ب ي</t>
+  </si>
+  <si>
+    <t>حسن ابراهيم حسن ابو عبدالله</t>
+  </si>
+  <si>
+    <t>TCNu-581065 3</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية السابعة</t>
+  </si>
+  <si>
+    <t>DRYu962487 o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3647 ل ق ط </t>
+  </si>
+  <si>
+    <t>5769 ل ب ى</t>
+  </si>
+  <si>
+    <t>محمود جمال</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية الثامنة</t>
+  </si>
+  <si>
+    <t>ONEU-502918 0</t>
+  </si>
+  <si>
+    <t>5427 ط ء ي</t>
+  </si>
+  <si>
+    <t>6873 ط م و</t>
+  </si>
+  <si>
+    <t>شريف عبد الحكيم عبده الشربيني</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية التاسعة</t>
+  </si>
+  <si>
+    <t>CAIU-946662 4</t>
+  </si>
+  <si>
+    <t>7728 ط د ي</t>
+  </si>
+  <si>
+    <t>8297 ط م ر</t>
+  </si>
+  <si>
+    <t>شريف عبدالمنعم خالد عبدالغفار</t>
   </si>
 </sst>
 </file>
@@ -664,10 +728,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -875,10 +939,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -887,10 +951,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1089,10 +1153,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1101,10 +1165,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1300,10 +1364,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1312,10 +1376,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1392,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1442,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1454,7 +1518,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1478,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1511,10 +1575,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1523,10 +1587,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1597,4 +1661,844 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="الحاوية الاولى" sheetId="2" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="الحاوية 7" sheetId="8" r:id="rId7"/>
     <sheet name="الحاوية 8" sheetId="9" r:id="rId8"/>
     <sheet name="الحاوية 9" sheetId="10" r:id="rId9"/>
+    <sheet name="الحاوية 10" sheetId="11" r:id="rId10"/>
+    <sheet name="الحاوية11" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
   <si>
     <t>التاريخ</t>
   </si>
@@ -220,6 +222,39 @@
   </si>
   <si>
     <t>شريف عبدالمنعم خالد عبدالغفار</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية العاشرة</t>
+  </si>
+  <si>
+    <t>ONEU-125393 / 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6873 ط م ر </t>
+  </si>
+  <si>
+    <t>5427 ط د ي</t>
+  </si>
+  <si>
+    <t>محمود عبداللطيف محمد الشربيني</t>
+  </si>
+  <si>
+    <t>احمد العشري</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية الحادية عشر</t>
+  </si>
+  <si>
+    <t>8293 ج م ج</t>
+  </si>
+  <si>
+    <t>1837 ط م ط</t>
+  </si>
+  <si>
+    <t>نشأت محمد محمد حسين</t>
+  </si>
+  <si>
+    <t>GCXU-524553 / 9</t>
   </si>
 </sst>
 </file>
@@ -816,6 +851,426 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
@@ -2297,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView rightToLeft="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="الحاوية الاولى" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="الحاوية 9" sheetId="10" r:id="rId9"/>
     <sheet name="الحاوية 10" sheetId="11" r:id="rId10"/>
     <sheet name="الحاوية11" sheetId="12" r:id="rId11"/>
+    <sheet name="الحاوية12" sheetId="13" r:id="rId12"/>
+    <sheet name="الحاوية13" sheetId="14" r:id="rId13"/>
+    <sheet name="الحاوية14" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>التاريخ</t>
   </si>
@@ -255,6 +258,51 @@
   </si>
   <si>
     <t>GCXU-524553 / 9</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية الثانية عشر</t>
+  </si>
+  <si>
+    <t>SEKU-468020 8</t>
+  </si>
+  <si>
+    <t>576 ل ق أ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4269 ل ع د </t>
+  </si>
+  <si>
+    <t>احمد جابر احمد جابر ناجي</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية الثالثة عشر</t>
+  </si>
+  <si>
+    <t>OOCU 778919 1</t>
+  </si>
+  <si>
+    <t>8742 ل ق ط</t>
+  </si>
+  <si>
+    <t>9618 ل ب ه</t>
+  </si>
+  <si>
+    <t>عبدالعزيز حامد عبدالعزيز شلبي</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية الرابعة عشر</t>
+  </si>
+  <si>
+    <t>TGBU 999440 9</t>
+  </si>
+  <si>
+    <t>8735 ل ق ط</t>
+  </si>
+  <si>
+    <t>9471 ل ب ه</t>
+  </si>
+  <si>
+    <t>محمد احمد ابراهيم السيد</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1212,6 +1260,636 @@
       </c>
       <c r="D14" s="4">
         <v>25555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>26000</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2752,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="الحاوية الاولى" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,18 @@
     <sheet name="الحاوية12" sheetId="13" r:id="rId12"/>
     <sheet name="الحاوية13" sheetId="14" r:id="rId13"/>
     <sheet name="الحاوية14" sheetId="15" r:id="rId14"/>
+    <sheet name="الحاوية15" sheetId="16" r:id="rId15"/>
+    <sheet name="الحاوية16" sheetId="17" r:id="rId16"/>
+    <sheet name="الحاوية17" sheetId="18" r:id="rId17"/>
+    <sheet name="ثروت1" sheetId="19" r:id="rId18"/>
+    <sheet name="ثروت2" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="112">
   <si>
     <t>التاريخ</t>
   </si>
@@ -303,6 +308,66 @@
   </si>
   <si>
     <t>محمد احمد ابراهيم السيد</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية الخامسة عشر</t>
+  </si>
+  <si>
+    <t>TCNU 803816 3</t>
+  </si>
+  <si>
+    <t>9878 س ل ب</t>
+  </si>
+  <si>
+    <t>7516 س ب ح</t>
+  </si>
+  <si>
+    <t>حسين شحاته حمزه متولي</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية السادسة عشر</t>
+  </si>
+  <si>
+    <t>TCNU 847778 3</t>
+  </si>
+  <si>
+    <t>9567 س ف ر</t>
+  </si>
+  <si>
+    <t>4526 س ل ب</t>
+  </si>
+  <si>
+    <t>حسن ابراهيم حسن مرسي</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية السابعة عشر</t>
+  </si>
+  <si>
+    <t>FCIU-854844 9</t>
+  </si>
+  <si>
+    <t>2855 س ط ص</t>
+  </si>
+  <si>
+    <t>3731 س د ي</t>
+  </si>
+  <si>
+    <t>مصطفى رشاد علي امام</t>
+  </si>
+  <si>
+    <t>بيانات الحاوية الثامنة عشر</t>
+  </si>
+  <si>
+    <t>ثروت</t>
+  </si>
+  <si>
+    <t>جامبو 2</t>
+  </si>
+  <si>
+    <t>جامبو 1</t>
+  </si>
+  <si>
+    <t>عمال الشركة</t>
   </si>
 </sst>
 </file>
@@ -1743,6 +1808,847 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D11*9.5</f>
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D11*D10</f>
+        <v>24605</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D11*D10</f>
+        <v>25935</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
@@ -1756,7 +2662,7 @@
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1769,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45304</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1780,9 +2686,7 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -1793,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1804,9 +2708,7 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -1817,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1829,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1853,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>2600</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1865,7 +2767,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1877,7 +2779,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1889,7 +2791,8 @@
         <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>26000</v>
+        <f>D11*D10</f>
+        <v>6570</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1920,8 +2823,8 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2">
-        <v>1200</v>
+      <c r="D17" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1932,8 +2835,215 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2">
-        <v>65</v>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D11*D10</f>
+        <v>8673.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">

--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="الحاوية الاولى" sheetId="2" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="الحاوية17" sheetId="18" r:id="rId17"/>
     <sheet name="ثروت1" sheetId="19" r:id="rId18"/>
     <sheet name="ثروت2" sheetId="20" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="129">
   <si>
     <t>التاريخ</t>
   </si>
@@ -368,13 +369,67 @@
   </si>
   <si>
     <t>عمال الشركة</t>
+  </si>
+  <si>
+    <t>مرتجع 6 صناديق فارغ</t>
+  </si>
+  <si>
+    <t>الأجمــــالي</t>
+  </si>
+  <si>
+    <t>عاطف وصفي</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>رقم الفاتوره</t>
+  </si>
+  <si>
+    <t>وزن فارغ</t>
+  </si>
+  <si>
+    <t>وزن قائم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد الصناديق </t>
+  </si>
+  <si>
+    <t>سعر القنطار</t>
+  </si>
+  <si>
+    <t>خصم</t>
+  </si>
+  <si>
+    <t>صافي الصندوق</t>
+  </si>
+  <si>
+    <t>صافي الكمية</t>
+  </si>
+  <si>
+    <t>الوزن بالقنطار</t>
+  </si>
+  <si>
+    <t>اجمالي المبلغ</t>
+  </si>
+  <si>
+    <t>مسحوبات</t>
+  </si>
+  <si>
+    <t>صافي المستحق</t>
+  </si>
+  <si>
+    <t>ملاحظات</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,16 +453,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -430,11 +518,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,6 +672,67 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2438,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2649,7 +2932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3267,6 +3550,222 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A5:O8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="A4:O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18">
+        <f>SUM(F7:F76)</f>
+        <v>115</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20">
+        <f t="shared" ref="H5:M5" si="0">SUM(H7:H76)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="0"/>
+        <v>3385</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>75.222222222222229</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="0"/>
+        <v>106439.44444444444</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <f>L5-M5</f>
+        <v>106439.44444444444</v>
+      </c>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>45229</v>
+      </c>
+      <c r="C7" s="10">
+        <v>558</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1855</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3510</v>
+      </c>
+      <c r="F7" s="10">
+        <v>51</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1415</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11">
+        <f t="shared" ref="I7:I8" si="1">F7*2</f>
+        <v>102</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J8" si="2">E7-D7-H7-I7</f>
+        <v>1553</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" ref="K7:K8" si="3">J7/45</f>
+        <v>34.511111111111113</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" ref="L7:L8" si="4">K7*G7</f>
+        <v>48833.222222222226</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45231</v>
+      </c>
+      <c r="C8" s="10">
+        <v>590</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1825</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3785</v>
+      </c>
+      <c r="F8" s="10">
+        <v>64</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1415</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="2"/>
+        <v>1832</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="3"/>
+        <v>40.711111111111109</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="4"/>
+        <v>57606.222222222219</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -26,14 +26,14 @@
     <sheet name="الحاوية17" sheetId="18" r:id="rId17"/>
     <sheet name="ثروت1" sheetId="19" r:id="rId18"/>
     <sheet name="ثروت2" sheetId="20" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="21" r:id="rId20"/>
+    <sheet name="الحاوية 19" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="117">
   <si>
     <t>التاريخ</t>
   </si>
@@ -371,65 +371,26 @@
     <t>عمال الشركة</t>
   </si>
   <si>
-    <t>مرتجع 6 صناديق فارغ</t>
-  </si>
-  <si>
-    <t>الأجمــــالي</t>
-  </si>
-  <si>
-    <t>عاطف وصفي</t>
-  </si>
-  <si>
-    <t>م</t>
-  </si>
-  <si>
-    <t>رقم الفاتوره</t>
-  </si>
-  <si>
-    <t>وزن فارغ</t>
-  </si>
-  <si>
-    <t>وزن قائم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد الصناديق </t>
-  </si>
-  <si>
-    <t>سعر القنطار</t>
-  </si>
-  <si>
-    <t>خصم</t>
-  </si>
-  <si>
-    <t>صافي الصندوق</t>
-  </si>
-  <si>
-    <t>صافي الكمية</t>
-  </si>
-  <si>
-    <t>الوزن بالقنطار</t>
-  </si>
-  <si>
-    <t>اجمالي المبلغ</t>
-  </si>
-  <si>
-    <t>مسحوبات</t>
-  </si>
-  <si>
-    <t>صافي المستحق</t>
-  </si>
-  <si>
-    <t>ملاحظات</t>
+    <t>بيانات الحاوية التاسعة عشر</t>
+  </si>
+  <si>
+    <t>CMAU-857511 4</t>
+  </si>
+  <si>
+    <t>1681 س م ب</t>
+  </si>
+  <si>
+    <t>3126 س ن ب</t>
+  </si>
+  <si>
+    <t>احمد حلمي موسى</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,49 +414,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -518,145 +446,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,67 +466,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2722,7 +2455,7 @@
   <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3558,212 +3291,211 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:O8"/>
+  <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="A4:O9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14" t="s">
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18">
-        <f>SUM(F7:F76)</f>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20">
-        <f t="shared" ref="H5:M5" si="0">SUM(H7:H76)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" si="0"/>
-        <v>3385</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>75.222222222222229</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" si="0"/>
-        <v>106439.44444444444</v>
-      </c>
-      <c r="M5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <f>L5-M5</f>
-        <v>106439.44444444444</v>
-      </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25" t="s">
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>45229</v>
-      </c>
-      <c r="C7" s="10">
-        <v>558</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1855</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3510</v>
-      </c>
-      <c r="F7" s="10">
-        <v>51</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1415</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11">
-        <f t="shared" ref="I7:I8" si="1">F7*2</f>
-        <v>102</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" ref="J7:J8" si="2">E7-D7-H7-I7</f>
-        <v>1553</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" ref="K7:K8" si="3">J7/45</f>
-        <v>34.511111111111113</v>
-      </c>
-      <c r="L7" s="13">
-        <f t="shared" ref="L7:L8" si="4">K7*G7</f>
-        <v>48833.222222222226</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9">
-        <v>45231</v>
-      </c>
-      <c r="C8" s="10">
-        <v>590</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1825</v>
-      </c>
-      <c r="E8" s="10">
-        <v>3785</v>
-      </c>
-      <c r="F8" s="10">
-        <v>64</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1415</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="2"/>
-        <v>1832</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="3"/>
-        <v>40.711111111111109</v>
-      </c>
-      <c r="L8" s="13">
-        <f t="shared" si="4"/>
-        <v>57606.222222222219</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D11*D10</f>
+        <v>25555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="12" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="الحاوية الاولى" sheetId="2" r:id="rId1"/>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2034,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2132,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3079,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3293,7 +3293,7 @@
   </sheetPr>
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3508,7 +3508,7 @@
   </sheetPr>
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3719,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3930,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4351,7 +4351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4561,7 +4561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4771,7 +4771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -4,36 +4,37 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="769" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="939"/>
   </bookViews>
   <sheets>
-    <sheet name="الحاوية الاولى" sheetId="2" r:id="rId1"/>
-    <sheet name="الحاوية الثانية" sheetId="3" r:id="rId2"/>
-    <sheet name="الحاوية الثالثة" sheetId="4" r:id="rId3"/>
-    <sheet name="الحاوية الرابعة" sheetId="5" r:id="rId4"/>
-    <sheet name="الحاوية الخامسة" sheetId="6" r:id="rId5"/>
-    <sheet name="الحاوية السادسة" sheetId="7" r:id="rId6"/>
-    <sheet name="الحاوية 7" sheetId="8" r:id="rId7"/>
-    <sheet name="الحاوية 8" sheetId="9" r:id="rId8"/>
-    <sheet name="الحاوية 9" sheetId="10" r:id="rId9"/>
-    <sheet name="الحاوية 10" sheetId="11" r:id="rId10"/>
-    <sheet name="الحاوية11" sheetId="12" r:id="rId11"/>
-    <sheet name="الحاوية12" sheetId="13" r:id="rId12"/>
-    <sheet name="الحاوية13" sheetId="14" r:id="rId13"/>
-    <sheet name="الحاوية14" sheetId="15" r:id="rId14"/>
-    <sheet name="الحاوية15" sheetId="16" r:id="rId15"/>
-    <sheet name="الحاوية16" sheetId="17" r:id="rId16"/>
-    <sheet name="الحاوية17" sheetId="18" r:id="rId17"/>
-    <sheet name="ثروت1" sheetId="19" r:id="rId18"/>
-    <sheet name="ثروت2" sheetId="20" r:id="rId19"/>
-    <sheet name="الحاوية 19" sheetId="21" r:id="rId20"/>
+    <sheet name="اجمالي الحاويات" sheetId="22" r:id="rId1"/>
+    <sheet name="الحاوية الاولى" sheetId="2" r:id="rId2"/>
+    <sheet name="الحاوية الثانية" sheetId="3" r:id="rId3"/>
+    <sheet name="الحاوية الثالثة" sheetId="4" r:id="rId4"/>
+    <sheet name="الحاوية الرابعة" sheetId="5" r:id="rId5"/>
+    <sheet name="الحاوية الخامسة" sheetId="6" r:id="rId6"/>
+    <sheet name="الحاوية السادسة" sheetId="7" r:id="rId7"/>
+    <sheet name="الحاوية 7" sheetId="8" r:id="rId8"/>
+    <sheet name="الحاوية 8" sheetId="9" r:id="rId9"/>
+    <sheet name="الحاوية 9" sheetId="10" r:id="rId10"/>
+    <sheet name="الحاوية 10" sheetId="11" r:id="rId11"/>
+    <sheet name="الحاوية11" sheetId="12" r:id="rId12"/>
+    <sheet name="الحاوية12" sheetId="13" r:id="rId13"/>
+    <sheet name="الحاوية13" sheetId="14" r:id="rId14"/>
+    <sheet name="الحاوية14" sheetId="15" r:id="rId15"/>
+    <sheet name="الحاوية15" sheetId="16" r:id="rId16"/>
+    <sheet name="الحاوية16" sheetId="17" r:id="rId17"/>
+    <sheet name="الحاوية17" sheetId="18" r:id="rId18"/>
+    <sheet name="ثروت1" sheetId="19" r:id="rId19"/>
+    <sheet name="ثروت2" sheetId="20" r:id="rId20"/>
+    <sheet name="الحاوية 19" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="145">
   <si>
     <t>التاريخ</t>
   </si>
@@ -384,13 +385,100 @@
   </si>
   <si>
     <t>احمد حلمي موسى</t>
+  </si>
+  <si>
+    <t>بيان مجمع لكل الحاويات</t>
+  </si>
+  <si>
+    <t>البيان</t>
+  </si>
+  <si>
+    <t>الحاوية 1</t>
+  </si>
+  <si>
+    <t>الحاوية 2</t>
+  </si>
+  <si>
+    <t>الحاوية 3</t>
+  </si>
+  <si>
+    <t>الحاوية 4</t>
+  </si>
+  <si>
+    <t>الحاوية 5</t>
+  </si>
+  <si>
+    <t>الحاوية 6</t>
+  </si>
+  <si>
+    <t>الحاوية 7</t>
+  </si>
+  <si>
+    <t>الحاوية 8</t>
+  </si>
+  <si>
+    <t>الحاوية 9</t>
+  </si>
+  <si>
+    <t>الحاوية 10</t>
+  </si>
+  <si>
+    <t>الحاوية 11</t>
+  </si>
+  <si>
+    <t>الحاوية 12</t>
+  </si>
+  <si>
+    <t>الحاوية 13</t>
+  </si>
+  <si>
+    <t>الحاوية 14</t>
+  </si>
+  <si>
+    <t>الحاوية 15</t>
+  </si>
+  <si>
+    <t>الحاوية 16</t>
+  </si>
+  <si>
+    <t>الحاوية 17</t>
+  </si>
+  <si>
+    <t>الحاوية 18</t>
+  </si>
+  <si>
+    <t>الحاوية 19</t>
+  </si>
+  <si>
+    <t>الحاوية 18-2</t>
+  </si>
+  <si>
+    <t>اجمالي الحاوية</t>
+  </si>
+  <si>
+    <t>استيكر + شرينك</t>
+  </si>
+  <si>
+    <t>بسكول</t>
+  </si>
+  <si>
+    <t>اجماليات</t>
+  </si>
+  <si>
+    <t>اجمالي الكيلو</t>
+  </si>
+  <si>
+    <t>تصفية حساب شركة اورينت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +502,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -423,7 +536,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -446,11 +559,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,6 +604,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,10 +951,2380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AI50"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:AG20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="9">
+        <f>'الحاوية الاولى'!D4</f>
+        <v>45252</v>
+      </c>
+      <c r="C4" s="10">
+        <f>'الحاوية الاولى'!D10</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="11">
+        <f>'الحاوية الاولى'!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E23" si="0">C4*D4</f>
+        <v>26000</v>
+      </c>
+      <c r="F4" s="12">
+        <v>33.5</v>
+      </c>
+      <c r="G4" s="11">
+        <f>F4*E4</f>
+        <v>871000</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="11">
+        <v>65</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="9">
+        <f>'الحاوية الثانية'!D4</f>
+        <v>45258</v>
+      </c>
+      <c r="C5" s="10">
+        <f>'الحاوية الثانية'!D10</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="11">
+        <f>'الحاوية الثانية'!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="F5" s="12">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G23" si="1">F5*E5</f>
+        <v>884000</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I5" s="11">
+        <v>65</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18" t="str">
+        <f>'الحاوية الاولى'!C4</f>
+        <v>التاريخ</v>
+      </c>
+      <c r="N5" s="19">
+        <f>'الحاوية الاولى'!D4</f>
+        <v>45252</v>
+      </c>
+      <c r="O5" s="19">
+        <f>'الحاوية الثانية'!D4</f>
+        <v>45258</v>
+      </c>
+      <c r="P5" s="19">
+        <f>'الحاوية الثالثة'!D4</f>
+        <v>45267</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>'الحاوية الرابعة'!D4</f>
+        <v>45272</v>
+      </c>
+      <c r="R5" s="19">
+        <f>'الحاوية الخامسة'!D4</f>
+        <v>45275</v>
+      </c>
+      <c r="S5" s="19">
+        <f>'الحاوية السادسة'!D4</f>
+        <v>45282</v>
+      </c>
+      <c r="T5" s="19">
+        <f>'الحاوية 7'!D4</f>
+        <v>45289</v>
+      </c>
+      <c r="U5" s="19">
+        <f>'الحاوية 8'!D4</f>
+        <v>45290</v>
+      </c>
+      <c r="V5" s="19">
+        <f>'الحاوية 9'!D4</f>
+        <v>45290</v>
+      </c>
+      <c r="W5" s="19">
+        <f>'الحاوية 10'!D4</f>
+        <v>45292</v>
+      </c>
+      <c r="X5" s="19">
+        <f>الحاوية11!D4</f>
+        <v>45292</v>
+      </c>
+      <c r="Y5" s="19">
+        <f>الحاوية12!D4</f>
+        <v>45303</v>
+      </c>
+      <c r="Z5" s="19">
+        <f>الحاوية13!D4</f>
+        <v>45303</v>
+      </c>
+      <c r="AA5" s="19">
+        <f>الحاوية14!D4</f>
+        <v>45304</v>
+      </c>
+      <c r="AB5" s="19">
+        <f>الحاوية15!D4</f>
+        <v>45313</v>
+      </c>
+      <c r="AC5" s="19">
+        <f>الحاوية16!D4</f>
+        <v>45313</v>
+      </c>
+      <c r="AD5" s="19">
+        <f>الحاوية17!D4</f>
+        <v>45313</v>
+      </c>
+      <c r="AE5" s="19">
+        <f>ثروت1!D4</f>
+        <v>45316</v>
+      </c>
+      <c r="AF5" s="19">
+        <f>ثروت2!D4</f>
+        <v>45316</v>
+      </c>
+      <c r="AG5" s="19">
+        <f>'الحاوية 19'!D4</f>
+        <v>45323</v>
+      </c>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="9">
+        <f>'الحاوية الثالثة'!D4</f>
+        <v>45267</v>
+      </c>
+      <c r="C6" s="10">
+        <f>'الحاوية الثالثة'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D6" s="11">
+        <f>'الحاوية الثالثة'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F6" s="12">
+        <v>36</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="11">
+        <v>65</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="L6" s="2">
+        <f>L5+1</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="18" t="str">
+        <f>'الحاوية الاولى'!C5</f>
+        <v>رقم الحاوية</v>
+      </c>
+      <c r="N6" s="20" t="str">
+        <f>'الحاوية الاولى'!D5</f>
+        <v>ONEV 109446 4</v>
+      </c>
+      <c r="O6" s="20" t="str">
+        <f>'الحاوية الثانية'!D5</f>
+        <v>TGBU 454797 5</v>
+      </c>
+      <c r="P6" s="20" t="str">
+        <f>'الحاوية الثالثة'!D5</f>
+        <v>TCLV153523 6</v>
+      </c>
+      <c r="Q6" s="20" t="str">
+        <f>'الحاوية الرابعة'!D5</f>
+        <v>BMOU 627100 1</v>
+      </c>
+      <c r="R6" s="20" t="str">
+        <f>'الحاوية الخامسة'!D5</f>
+        <v>TCNu-581065 3</v>
+      </c>
+      <c r="S6" s="20" t="str">
+        <f>'الحاوية السادسة'!D5</f>
+        <v>TLLu-583964 9</v>
+      </c>
+      <c r="T6" s="20" t="str">
+        <f>'الحاوية 7'!D5</f>
+        <v>DRYu962487 o</v>
+      </c>
+      <c r="U6" s="20" t="str">
+        <f>'الحاوية 8'!D5</f>
+        <v>ONEU-502918 0</v>
+      </c>
+      <c r="V6" s="20" t="str">
+        <f>'الحاوية 9'!D5</f>
+        <v>CAIU-946662 4</v>
+      </c>
+      <c r="W6" s="20" t="str">
+        <f>'الحاوية 10'!D5</f>
+        <v>ONEU-125393 / 0</v>
+      </c>
+      <c r="X6" s="20" t="str">
+        <f>الحاوية11!D5</f>
+        <v>GCXU-524553 / 9</v>
+      </c>
+      <c r="Y6" s="20" t="str">
+        <f>الحاوية12!D5</f>
+        <v>SEKU-468020 8</v>
+      </c>
+      <c r="Z6" s="20" t="str">
+        <f>الحاوية13!D5</f>
+        <v>OOCU 778919 1</v>
+      </c>
+      <c r="AA6" s="20" t="str">
+        <f>الحاوية14!D5</f>
+        <v>TGBU 999440 9</v>
+      </c>
+      <c r="AB6" s="20" t="str">
+        <f>الحاوية15!D5</f>
+        <v>TCNU 803816 3</v>
+      </c>
+      <c r="AC6" s="20" t="str">
+        <f>الحاوية16!D5</f>
+        <v>TCNU 847778 3</v>
+      </c>
+      <c r="AD6" s="20" t="str">
+        <f>الحاوية17!D5</f>
+        <v>FCIU-854844 9</v>
+      </c>
+      <c r="AE6" s="20">
+        <f>ثروت1!D5</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="20">
+        <f>ثروت2!D5</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="20" t="str">
+        <f>'الحاوية 19'!D5</f>
+        <v>CMAU-857511 4</v>
+      </c>
+      <c r="AH6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="9">
+        <f>'الحاوية الرابعة'!D4</f>
+        <v>45272</v>
+      </c>
+      <c r="C7" s="10">
+        <f>'الحاوية الرابعة'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D7" s="11">
+        <f>'الحاوية الرابعة'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F7" s="12">
+        <v>36</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I7" s="11">
+        <v>65</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L14" si="2">L6+1</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="18" t="str">
+        <f>'الحاوية الاولى'!C6</f>
+        <v>رقم السيارة</v>
+      </c>
+      <c r="N7" s="20" t="str">
+        <f>'الحاوية الاولى'!D6</f>
+        <v xml:space="preserve">6289 د ي ع </v>
+      </c>
+      <c r="O7" s="20" t="str">
+        <f>'الحاوية الثانية'!D6</f>
+        <v xml:space="preserve">6917 د ي ع </v>
+      </c>
+      <c r="P7" s="20" t="str">
+        <f>'الحاوية الثالثة'!D6</f>
+        <v>9147 ل س ج</v>
+      </c>
+      <c r="Q7" s="20" t="str">
+        <f>'الحاوية الرابعة'!D6</f>
+        <v>4539 ل ع د</v>
+      </c>
+      <c r="R7" s="20" t="str">
+        <f>'الحاوية الخامسة'!D6</f>
+        <v>7961 ل ي ج</v>
+      </c>
+      <c r="S7" s="20" t="str">
+        <f>'الحاوية السادسة'!D6</f>
+        <v>3647 ل ق ط</v>
+      </c>
+      <c r="T7" s="20" t="str">
+        <f>'الحاوية 7'!D6</f>
+        <v xml:space="preserve">3647 ل ق ط </v>
+      </c>
+      <c r="U7" s="20" t="str">
+        <f>'الحاوية 8'!D6</f>
+        <v>5427 ط ء ي</v>
+      </c>
+      <c r="V7" s="20" t="str">
+        <f>'الحاوية 9'!D6</f>
+        <v>7728 ط د ي</v>
+      </c>
+      <c r="W7" s="20" t="str">
+        <f>'الحاوية 10'!D6</f>
+        <v xml:space="preserve">6873 ط م ر </v>
+      </c>
+      <c r="X7" s="20" t="str">
+        <f>الحاوية11!D6</f>
+        <v>8293 ج م ج</v>
+      </c>
+      <c r="Y7" s="20" t="str">
+        <f>الحاوية12!D6</f>
+        <v>576 ل ق أ</v>
+      </c>
+      <c r="Z7" s="20" t="str">
+        <f>الحاوية13!D6</f>
+        <v>8742 ل ق ط</v>
+      </c>
+      <c r="AA7" s="20" t="str">
+        <f>الحاوية14!D6</f>
+        <v>8735 ل ق ط</v>
+      </c>
+      <c r="AB7" s="20" t="str">
+        <f>الحاوية15!D6</f>
+        <v>9878 س ل ب</v>
+      </c>
+      <c r="AC7" s="20" t="str">
+        <f>الحاوية16!D6</f>
+        <v>9567 س ف ر</v>
+      </c>
+      <c r="AD7" s="20" t="str">
+        <f>الحاوية17!D6</f>
+        <v>2855 س ط ص</v>
+      </c>
+      <c r="AE7" s="20" t="str">
+        <f>ثروت1!D6</f>
+        <v>جامبو 1</v>
+      </c>
+      <c r="AF7" s="20" t="str">
+        <f>ثروت2!D6</f>
+        <v>جامبو 2</v>
+      </c>
+      <c r="AG7" s="20" t="str">
+        <f>'الحاوية 19'!D6</f>
+        <v>1681 س م ب</v>
+      </c>
+      <c r="AH7"/>
+      <c r="AI7"/>
+    </row>
+    <row r="8" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="9">
+        <f>'الحاوية الخامسة'!D4</f>
+        <v>45275</v>
+      </c>
+      <c r="C8" s="10">
+        <f>'الحاوية الخامسة'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D8" s="11">
+        <f>'الحاوية الخامسة'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F8" s="12">
+        <v>36</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="11">
+        <v>65</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="18" t="str">
+        <f>'الحاوية الاولى'!C7</f>
+        <v>رقم السيارة 2</v>
+      </c>
+      <c r="N8" s="20" t="str">
+        <f>'الحاوية الاولى'!D7</f>
+        <v>1891 د ن ي</v>
+      </c>
+      <c r="O8" s="20" t="str">
+        <f>'الحاوية الثانية'!D7</f>
+        <v>8464 د ي ق</v>
+      </c>
+      <c r="P8" s="20" t="str">
+        <f>'الحاوية الثالثة'!D7</f>
+        <v>5912 ل ي ب</v>
+      </c>
+      <c r="Q8" s="20" t="str">
+        <f>'الحاوية الرابعة'!D7</f>
+        <v>5178 ل ق ص</v>
+      </c>
+      <c r="R8" s="20" t="str">
+        <f>'الحاوية الخامسة'!D7</f>
+        <v>7128 ل ع د</v>
+      </c>
+      <c r="S8" s="20" t="str">
+        <f>'الحاوية السادسة'!D7</f>
+        <v>5769 ل ب ي</v>
+      </c>
+      <c r="T8" s="20" t="str">
+        <f>'الحاوية 7'!D7</f>
+        <v>5769 ل ب ى</v>
+      </c>
+      <c r="U8" s="20" t="str">
+        <f>'الحاوية 8'!D7</f>
+        <v>6873 ط م و</v>
+      </c>
+      <c r="V8" s="20" t="str">
+        <f>'الحاوية 9'!D7</f>
+        <v>8297 ط م ر</v>
+      </c>
+      <c r="W8" s="20" t="str">
+        <f>'الحاوية 10'!D7</f>
+        <v>5427 ط د ي</v>
+      </c>
+      <c r="X8" s="20" t="str">
+        <f>الحاوية11!D7</f>
+        <v>1837 ط م ط</v>
+      </c>
+      <c r="Y8" s="20" t="str">
+        <f>الحاوية12!D7</f>
+        <v xml:space="preserve">4269 ل ع د </v>
+      </c>
+      <c r="Z8" s="20" t="str">
+        <f>الحاوية13!D7</f>
+        <v>9618 ل ب ه</v>
+      </c>
+      <c r="AA8" s="20" t="str">
+        <f>الحاوية14!D7</f>
+        <v>9471 ل ب ه</v>
+      </c>
+      <c r="AB8" s="20" t="str">
+        <f>الحاوية15!D7</f>
+        <v>7516 س ب ح</v>
+      </c>
+      <c r="AC8" s="20" t="str">
+        <f>الحاوية16!D7</f>
+        <v>4526 س ل ب</v>
+      </c>
+      <c r="AD8" s="20" t="str">
+        <f>الحاوية17!D7</f>
+        <v>3731 س د ي</v>
+      </c>
+      <c r="AE8" s="20">
+        <f>ثروت1!D7</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="20">
+        <f>ثروت2!D7</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="20" t="str">
+        <f>'الحاوية 19'!D7</f>
+        <v>3126 س ن ب</v>
+      </c>
+      <c r="AH8"/>
+      <c r="AI8"/>
+    </row>
+    <row r="9" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="9">
+        <f>'الحاوية السادسة'!D4</f>
+        <v>45282</v>
+      </c>
+      <c r="C9" s="10">
+        <f>'الحاوية السادسة'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D9" s="11">
+        <f>'الحاوية السادسة'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F9" s="12">
+        <v>36</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="11">
+        <v>65</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="18" t="str">
+        <f>'الحاوية الاولى'!C8</f>
+        <v>اسم السائق</v>
+      </c>
+      <c r="N9" s="20" t="str">
+        <f>'الحاوية الاولى'!D8</f>
+        <v>احمد السيد محمد سليمان</v>
+      </c>
+      <c r="O9" s="20" t="str">
+        <f>'الحاوية الثانية'!D8</f>
+        <v>محمد الشحات محمد الشحات</v>
+      </c>
+      <c r="P9" s="20" t="str">
+        <f>'الحاوية الثالثة'!D8</f>
+        <v>رضا كمال محمد ناجي</v>
+      </c>
+      <c r="Q9" s="20" t="str">
+        <f>'الحاوية الرابعة'!D8</f>
+        <v>وحيد حسن عبدالقادر ابراهيم</v>
+      </c>
+      <c r="R9" s="20" t="str">
+        <f>'الحاوية الخامسة'!D8</f>
+        <v>ابراهيم عبدالسميع محمد يوسف</v>
+      </c>
+      <c r="S9" s="20" t="str">
+        <f>'الحاوية السادسة'!D8</f>
+        <v>حسن ابراهيم حسن ابو عبدالله</v>
+      </c>
+      <c r="T9" s="20" t="str">
+        <f>'الحاوية 7'!D8</f>
+        <v>حسن ابراهيم حسن ابو عبدالله</v>
+      </c>
+      <c r="U9" s="20" t="str">
+        <f>'الحاوية 8'!D8</f>
+        <v>شريف عبد الحكيم عبده الشربيني</v>
+      </c>
+      <c r="V9" s="20" t="str">
+        <f>'الحاوية 9'!D8</f>
+        <v>شريف عبدالمنعم خالد عبدالغفار</v>
+      </c>
+      <c r="W9" s="20" t="str">
+        <f>'الحاوية 10'!D8</f>
+        <v>محمود عبداللطيف محمد الشربيني</v>
+      </c>
+      <c r="X9" s="20" t="str">
+        <f>الحاوية11!D8</f>
+        <v>نشأت محمد محمد حسين</v>
+      </c>
+      <c r="Y9" s="20" t="str">
+        <f>الحاوية12!D8</f>
+        <v>احمد جابر احمد جابر ناجي</v>
+      </c>
+      <c r="Z9" s="20" t="str">
+        <f>الحاوية13!D8</f>
+        <v>عبدالعزيز حامد عبدالعزيز شلبي</v>
+      </c>
+      <c r="AA9" s="20" t="str">
+        <f>الحاوية14!D8</f>
+        <v>محمد احمد ابراهيم السيد</v>
+      </c>
+      <c r="AB9" s="20" t="str">
+        <f>الحاوية15!D8</f>
+        <v>حسين شحاته حمزه متولي</v>
+      </c>
+      <c r="AC9" s="20" t="str">
+        <f>الحاوية16!D8</f>
+        <v>حسن ابراهيم حسن مرسي</v>
+      </c>
+      <c r="AD9" s="20" t="str">
+        <f>الحاوية17!D8</f>
+        <v>مصطفى رشاد علي امام</v>
+      </c>
+      <c r="AE9" s="20" t="str">
+        <f>ثروت1!D8</f>
+        <v>ثروت</v>
+      </c>
+      <c r="AF9" s="20" t="str">
+        <f>ثروت2!D8</f>
+        <v>ثروت</v>
+      </c>
+      <c r="AG9" s="20" t="str">
+        <f>'الحاوية 19'!D8</f>
+        <v>احمد حلمي موسى</v>
+      </c>
+      <c r="AH9"/>
+      <c r="AI9"/>
+    </row>
+    <row r="10" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="9">
+        <f>'الحاوية 7'!D4</f>
+        <v>45289</v>
+      </c>
+      <c r="C10" s="10">
+        <f>'الحاوية 7'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D10" s="11">
+        <f>'الحاوية 7'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F10" s="12">
+        <v>36</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="11">
+        <v>65</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="18" t="str">
+        <f>'الحاوية الاولى'!C9</f>
+        <v>اسم المندوب المستلم</v>
+      </c>
+      <c r="N10" s="20" t="str">
+        <f>'الحاوية الاولى'!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="O10" s="20" t="str">
+        <f>'الحاوية الثانية'!D9</f>
+        <v>احمد عبدالعليم المصري</v>
+      </c>
+      <c r="P10" s="20" t="str">
+        <f>'الحاوية الثالثة'!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="Q10" s="20" t="str">
+        <f>'الحاوية الرابعة'!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="R10" s="20" t="str">
+        <f>'الحاوية الخامسة'!D9</f>
+        <v>احمد الشرقاوي</v>
+      </c>
+      <c r="S10" s="20" t="str">
+        <f>'الحاوية السادسة'!D9</f>
+        <v>احمد الشرقاوي</v>
+      </c>
+      <c r="T10" s="20" t="str">
+        <f>'الحاوية 7'!D9</f>
+        <v>محمود جمال</v>
+      </c>
+      <c r="U10" s="20" t="str">
+        <f>'الحاوية 8'!D9</f>
+        <v>احمد الشرقاوي</v>
+      </c>
+      <c r="V10" s="20" t="str">
+        <f>'الحاوية 9'!D9</f>
+        <v>احمد الشرقاوي</v>
+      </c>
+      <c r="W10" s="20" t="str">
+        <f>'الحاوية 10'!D9</f>
+        <v>احمد العشري</v>
+      </c>
+      <c r="X10" s="20" t="str">
+        <f>الحاوية11!D9</f>
+        <v>احمد العشري</v>
+      </c>
+      <c r="Y10" s="20" t="str">
+        <f>الحاوية12!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="Z10" s="20" t="str">
+        <f>الحاوية13!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="AA10" s="20" t="str">
+        <f>الحاوية14!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="AB10" s="20" t="str">
+        <f>الحاوية15!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="AC10" s="20" t="str">
+        <f>الحاوية16!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="AD10" s="20" t="str">
+        <f>الحاوية17!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+      <c r="AE10" s="20" t="str">
+        <f>ثروت1!D9</f>
+        <v>ثروت</v>
+      </c>
+      <c r="AF10" s="20" t="str">
+        <f>ثروت2!D9</f>
+        <v>ثروت</v>
+      </c>
+      <c r="AG10" s="20" t="str">
+        <f>'الحاوية 19'!D9</f>
+        <v>محمد عاطف</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="9">
+        <f>'الحاوية 8'!D4</f>
+        <v>45290</v>
+      </c>
+      <c r="C11" s="10">
+        <f>'الحاوية 8'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D11" s="11">
+        <f>'الحاوية 8'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F11" s="12">
+        <v>36</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I11" s="11">
+        <v>65</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M11" s="18" t="str">
+        <f>'الحاوية الاولى'!C10</f>
+        <v>وزن الكرتون</v>
+      </c>
+      <c r="N11" s="20">
+        <f>'الحاوية الاولى'!D10</f>
+        <v>10</v>
+      </c>
+      <c r="O11" s="20">
+        <f>'الحاوية الثانية'!D10</f>
+        <v>10</v>
+      </c>
+      <c r="P11" s="20">
+        <f>'الحاوية الثالثة'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="Q11" s="20">
+        <f>'الحاوية الرابعة'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="R11" s="20">
+        <f>'الحاوية الخامسة'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="S11" s="20">
+        <f>'الحاوية السادسة'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="T11" s="20">
+        <f>'الحاوية 7'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="U11" s="20">
+        <f>'الحاوية 8'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="V11" s="20">
+        <f>'الحاوية 9'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="W11" s="20">
+        <f>'الحاوية 10'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="X11" s="20">
+        <f>الحاوية11!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="Y11" s="20">
+        <f>الحاوية12!D10</f>
+        <v>10</v>
+      </c>
+      <c r="Z11" s="20">
+        <f>الحاوية13!D10</f>
+        <v>10</v>
+      </c>
+      <c r="AA11" s="20">
+        <f>الحاوية14!D10</f>
+        <v>10</v>
+      </c>
+      <c r="AB11" s="20">
+        <f>الحاوية15!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="AC11" s="20">
+        <f>الحاوية16!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="AD11" s="20">
+        <f>الحاوية17!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="AE11" s="20">
+        <f>ثروت1!D10</f>
+        <v>10</v>
+      </c>
+      <c r="AF11" s="20">
+        <f>ثروت2!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="AG11" s="20">
+        <f>'الحاوية 19'!D10</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="9">
+        <f>'الحاوية 9'!D4</f>
+        <v>45290</v>
+      </c>
+      <c r="C12" s="10">
+        <f>'الحاوية 9'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D12" s="11">
+        <f>'الحاوية 9'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F12" s="12">
+        <v>36</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I12" s="11">
+        <v>65</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="18" t="str">
+        <f>'الحاوية الاولى'!C11</f>
+        <v>عدد الكرتون</v>
+      </c>
+      <c r="N12" s="20">
+        <f>'الحاوية الاولى'!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="O12" s="20">
+        <f>'الحاوية الثانية'!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="P12" s="20">
+        <f>'الحاوية الثالثة'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="Q12" s="20">
+        <f>'الحاوية الرابعة'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="R12" s="20">
+        <f>'الحاوية الخامسة'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="S12" s="20">
+        <f>'الحاوية السادسة'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="T12" s="20">
+        <f>'الحاوية 7'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="U12" s="20">
+        <f>'الحاوية 8'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="V12" s="20">
+        <f>'الحاوية 9'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="W12" s="20">
+        <f>'الحاوية 10'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="X12" s="20">
+        <f>الحاوية11!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="Y12" s="20">
+        <f>الحاوية12!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="Z12" s="20">
+        <f>الحاوية13!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="AA12" s="20">
+        <f>الحاوية14!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="AB12" s="20">
+        <f>الحاوية15!D11</f>
+        <v>530</v>
+      </c>
+      <c r="AC12" s="20">
+        <f>الحاوية16!D11</f>
+        <v>2590</v>
+      </c>
+      <c r="AD12" s="20">
+        <f>الحاوية17!D11</f>
+        <v>2730</v>
+      </c>
+      <c r="AE12" s="20">
+        <f>ثروت1!D11</f>
+        <v>657</v>
+      </c>
+      <c r="AF12" s="20">
+        <f>ثروت2!D11</f>
+        <v>913</v>
+      </c>
+      <c r="AG12" s="20">
+        <f>'الحاوية 19'!D11</f>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="9">
+        <f>'الحاوية 10'!D4</f>
+        <v>45292</v>
+      </c>
+      <c r="C13" s="10">
+        <f>'الحاوية 10'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D13" s="11">
+        <f>'الحاوية 10'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F13" s="12">
+        <v>36</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I13" s="11">
+        <v>65</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M13" s="18" t="str">
+        <f>'الحاوية الاولى'!C12</f>
+        <v>استيكر</v>
+      </c>
+      <c r="N13" s="20" t="str">
+        <f>'الحاوية الاولى'!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="O13" s="20" t="str">
+        <f>'الحاوية الثانية'!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="P13" s="20" t="str">
+        <f>'الحاوية الثالثة'!D12</f>
+        <v xml:space="preserve"> يوجد</v>
+      </c>
+      <c r="Q13" s="20" t="str">
+        <f>'الحاوية الرابعة'!D12</f>
+        <v>لا يوجد</v>
+      </c>
+      <c r="R13" s="20" t="str">
+        <f>'الحاوية الخامسة'!D12</f>
+        <v>لا يوجد</v>
+      </c>
+      <c r="S13" s="20" t="str">
+        <f>'الحاوية السادسة'!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="T13" s="20" t="str">
+        <f>'الحاوية 7'!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="U13" s="20" t="str">
+        <f>'الحاوية 8'!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="V13" s="20" t="str">
+        <f>'الحاوية 9'!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="W13" s="20" t="str">
+        <f>'الحاوية 10'!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="X13" s="20" t="str">
+        <f>الحاوية11!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="Y13" s="20" t="str">
+        <f>الحاوية12!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="Z13" s="20" t="str">
+        <f>الحاوية13!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AA13" s="20" t="str">
+        <f>الحاوية14!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AB13" s="20" t="str">
+        <f>الحاوية15!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AC13" s="20" t="str">
+        <f>الحاوية16!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AD13" s="20" t="str">
+        <f>الحاوية17!D12</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AE13" s="20" t="str">
+        <f>ثروت1!D12</f>
+        <v>لا يوجد</v>
+      </c>
+      <c r="AF13" s="20" t="str">
+        <f>ثروت2!D12</f>
+        <v>لا يوجد</v>
+      </c>
+      <c r="AG13" s="20" t="str">
+        <f>'الحاوية 19'!D12</f>
+        <v>يوجد</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="9">
+        <f>الحاوية11!D4</f>
+        <v>45292</v>
+      </c>
+      <c r="C14" s="10">
+        <f>الحاوية11!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D14" s="11">
+        <f>الحاوية11!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F14" s="12">
+        <v>36</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="1"/>
+        <v>919980</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="11">
+        <v>65</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="18" t="str">
+        <f>'الحاوية الاولى'!C13</f>
+        <v>شرينك</v>
+      </c>
+      <c r="N14" s="20" t="str">
+        <f>'الحاوية الاولى'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="O14" s="20" t="str">
+        <f>'الحاوية الثانية'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="P14" s="20" t="str">
+        <f>'الحاوية الثالثة'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="Q14" s="20" t="str">
+        <f>'الحاوية الرابعة'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="R14" s="20" t="str">
+        <f>'الحاوية الخامسة'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="S14" s="20" t="str">
+        <f>'الحاوية السادسة'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="T14" s="20" t="str">
+        <f>'الحاوية 7'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="U14" s="20" t="str">
+        <f>'الحاوية 8'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="V14" s="20" t="str">
+        <f>'الحاوية 9'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="W14" s="20" t="str">
+        <f>'الحاوية 10'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="X14" s="20" t="str">
+        <f>الحاوية11!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="Y14" s="20" t="str">
+        <f>الحاوية12!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="Z14" s="20" t="str">
+        <f>الحاوية13!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AA14" s="20" t="str">
+        <f>الحاوية14!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AB14" s="20" t="str">
+        <f>الحاوية15!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AC14" s="20" t="str">
+        <f>الحاوية16!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AD14" s="20" t="str">
+        <f>الحاوية17!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AE14" s="20" t="str">
+        <f>ثروت1!D13</f>
+        <v>لا يوجد</v>
+      </c>
+      <c r="AF14" s="20" t="str">
+        <f>ثروت2!D13</f>
+        <v>لا يوجد</v>
+      </c>
+      <c r="AG14" s="20" t="str">
+        <f>'الحاوية 19'!D13</f>
+        <v>يوجد</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="9">
+        <f>الحاوية12!D4</f>
+        <v>45303</v>
+      </c>
+      <c r="C15" s="10">
+        <f>الحاوية12!D10</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="11">
+        <f>الحاوية12!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="F15" s="12">
+        <v>36</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="1"/>
+        <v>936000</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="11">
+        <v>65</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="18" t="str">
+        <f>'الحاوية الاولى'!C14</f>
+        <v>اجمالي الكمية بالكيلو</v>
+      </c>
+      <c r="N15" s="20">
+        <f>'الحاوية الاولى'!D14</f>
+        <v>26000</v>
+      </c>
+      <c r="O15" s="20">
+        <f>'الحاوية الثانية'!D14</f>
+        <v>26000</v>
+      </c>
+      <c r="P15" s="20">
+        <f>'الحاوية الثالثة'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="Q15" s="20">
+        <f>'الحاوية الرابعة'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="R15" s="20">
+        <f>'الحاوية الخامسة'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="S15" s="20">
+        <f>'الحاوية السادسة'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="T15" s="20">
+        <f>'الحاوية 7'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="U15" s="20">
+        <f>'الحاوية 8'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="V15" s="20">
+        <f>'الحاوية 9'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="W15" s="20">
+        <f>'الحاوية 10'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="X15" s="20">
+        <f>الحاوية11!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="Y15" s="20">
+        <f>الحاوية12!D14</f>
+        <v>26000</v>
+      </c>
+      <c r="Z15" s="20">
+        <f>الحاوية13!D14</f>
+        <v>26000</v>
+      </c>
+      <c r="AA15" s="20">
+        <f>الحاوية14!D14</f>
+        <v>26000</v>
+      </c>
+      <c r="AB15" s="20">
+        <f>الحاوية15!D14</f>
+        <v>5035</v>
+      </c>
+      <c r="AC15" s="20">
+        <f>الحاوية16!D14</f>
+        <v>24605</v>
+      </c>
+      <c r="AD15" s="20">
+        <f>الحاوية17!D14</f>
+        <v>25935</v>
+      </c>
+      <c r="AE15" s="20">
+        <f>ثروت1!D14</f>
+        <v>6570</v>
+      </c>
+      <c r="AF15" s="20">
+        <f>ثروت2!D14</f>
+        <v>8673.5</v>
+      </c>
+      <c r="AG15" s="20">
+        <f>'الحاوية 19'!D14</f>
+        <v>25555</v>
+      </c>
+      <c r="AH15" s="6">
+        <f>SUM(N15:AG15)</f>
+        <v>456368.5</v>
+      </c>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="9">
+        <f>الحاوية13!D4</f>
+        <v>45303</v>
+      </c>
+      <c r="C16" s="10">
+        <f>الحاوية13!D10</f>
+        <v>10</v>
+      </c>
+      <c r="D16" s="11">
+        <f>الحاوية13!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="F16" s="12">
+        <v>36</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="1"/>
+        <v>936000</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I16" s="11">
+        <v>65</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="M16" s="18" t="str">
+        <f>'الحاوية الاولى'!C15</f>
+        <v>سعر الكيلو</v>
+      </c>
+      <c r="N16" s="20">
+        <f>'الحاوية الاولى'!D15</f>
+        <v>33.5</v>
+      </c>
+      <c r="O16" s="20">
+        <f>'الحاوية الثانية'!D15</f>
+        <v>34</v>
+      </c>
+      <c r="P16" s="20">
+        <f>'الحاوية الثالثة'!D15</f>
+        <v>36</v>
+      </c>
+      <c r="Q16" s="20">
+        <f>'الحاوية الرابعة'!D15</f>
+        <v>36</v>
+      </c>
+      <c r="R16" s="20">
+        <f>'الحاوية الخامسة'!D15</f>
+        <v>36</v>
+      </c>
+      <c r="S16" s="20">
+        <f>'الحاوية السادسة'!D15</f>
+        <v>36</v>
+      </c>
+      <c r="T16" s="20">
+        <f>'الحاوية 7'!D15</f>
+        <v>36</v>
+      </c>
+      <c r="U16" s="20">
+        <f>'الحاوية 8'!D15</f>
+        <v>36</v>
+      </c>
+      <c r="V16" s="20">
+        <f>'الحاوية 9'!D15</f>
+        <v>36</v>
+      </c>
+      <c r="W16" s="20">
+        <f>'الحاوية 10'!D15</f>
+        <v>36</v>
+      </c>
+      <c r="X16" s="20">
+        <f>الحاوية11!D15</f>
+        <v>36</v>
+      </c>
+      <c r="Y16" s="20">
+        <f>الحاوية12!D15</f>
+        <v>36</v>
+      </c>
+      <c r="Z16" s="20">
+        <f>الحاوية13!D15</f>
+        <v>36</v>
+      </c>
+      <c r="AA16" s="20">
+        <f>الحاوية14!D15</f>
+        <v>36</v>
+      </c>
+      <c r="AB16" s="20">
+        <f>الحاوية15!D15</f>
+        <v>36</v>
+      </c>
+      <c r="AC16" s="20">
+        <f>الحاوية16!D15</f>
+        <v>34</v>
+      </c>
+      <c r="AD16" s="20">
+        <f>الحاوية17!D15</f>
+        <v>36</v>
+      </c>
+      <c r="AE16" s="20">
+        <f>ثروت1!D15</f>
+        <v>36</v>
+      </c>
+      <c r="AF16" s="20">
+        <f>ثروت2!D15</f>
+        <v>36</v>
+      </c>
+      <c r="AG16" s="20">
+        <f>'الحاوية 19'!D15</f>
+        <v>30.88</v>
+      </c>
+      <c r="AH16" s="6">
+        <f t="shared" ref="AH16:AH20" si="3">SUM(N16:AG16)</f>
+        <v>708.38</v>
+      </c>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="9">
+        <f>الحاوية14!D4</f>
+        <v>45304</v>
+      </c>
+      <c r="C17" s="10">
+        <f>الحاوية14!D10</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="11">
+        <f>الحاوية14!D11</f>
+        <v>2600</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="F17" s="12">
+        <v>36</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="1"/>
+        <v>936000</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="11">
+        <v>65</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="M17" s="18" t="str">
+        <f>'الحاوية الاولى'!C16</f>
+        <v>اجمالي سعر الحاوية</v>
+      </c>
+      <c r="N17" s="20">
+        <f>'الحاوية الاولى'!D16</f>
+        <v>871000</v>
+      </c>
+      <c r="O17" s="20">
+        <f>'الحاوية الثانية'!D16</f>
+        <v>884000</v>
+      </c>
+      <c r="P17" s="20">
+        <f>'الحاوية الثالثة'!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="Q17" s="20">
+        <f>'الحاوية الرابعة'!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="R17" s="20">
+        <f>'الحاوية الخامسة'!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="S17" s="20">
+        <f>'الحاوية السادسة'!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="T17" s="20">
+        <f>'الحاوية 7'!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="U17" s="20">
+        <f>'الحاوية 8'!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="V17" s="20">
+        <f>'الحاوية 9'!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="W17" s="20">
+        <f>'الحاوية 10'!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="X17" s="20">
+        <f>الحاوية11!D16</f>
+        <v>919980</v>
+      </c>
+      <c r="Y17" s="20">
+        <f>الحاوية12!D16</f>
+        <v>936000</v>
+      </c>
+      <c r="Z17" s="20">
+        <f>الحاوية13!D16</f>
+        <v>936000</v>
+      </c>
+      <c r="AA17" s="20">
+        <f>الحاوية14!D16</f>
+        <v>936000</v>
+      </c>
+      <c r="AB17" s="20">
+        <f>الحاوية15!D16</f>
+        <v>181260</v>
+      </c>
+      <c r="AC17" s="20">
+        <f>الحاوية16!D16</f>
+        <v>836570</v>
+      </c>
+      <c r="AD17" s="20">
+        <f>الحاوية17!D16</f>
+        <v>933660</v>
+      </c>
+      <c r="AE17" s="20">
+        <f>ثروت1!D16</f>
+        <v>236520</v>
+      </c>
+      <c r="AF17" s="20">
+        <f>ثروت2!D16</f>
+        <v>312246</v>
+      </c>
+      <c r="AG17" s="20">
+        <f>'الحاوية 19'!D16</f>
+        <v>789138.4</v>
+      </c>
+      <c r="AH17" s="6">
+        <f t="shared" si="3"/>
+        <v>16132214.4</v>
+      </c>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="9">
+        <f>الحاوية15!D4</f>
+        <v>45313</v>
+      </c>
+      <c r="C18" s="10">
+        <f>الحاوية15!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D18" s="11">
+        <f>الحاوية15!D11</f>
+        <v>530</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
+        <v>5035</v>
+      </c>
+      <c r="F18" s="12">
+        <v>36</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="1"/>
+        <v>181260</v>
+      </c>
+      <c r="H18" s="11">
+        <v>250</v>
+      </c>
+      <c r="I18" s="11">
+        <f>الحاوية15!D18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="M18" s="18" t="str">
+        <f>'الحاوية الاولى'!C17</f>
+        <v>اجرة تحميل</v>
+      </c>
+      <c r="N18" s="20">
+        <f>'الحاوية الاولى'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="O18" s="20">
+        <f>'الحاوية الثانية'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="P18" s="20">
+        <f>'الحاوية الثالثة'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="Q18" s="20">
+        <f>'الحاوية الرابعة'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="R18" s="20">
+        <f>'الحاوية الخامسة'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="S18" s="20">
+        <f>'الحاوية السادسة'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="T18" s="20">
+        <f>'الحاوية 7'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="U18" s="20">
+        <f>'الحاوية 8'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="V18" s="20">
+        <f>'الحاوية 9'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="W18" s="20">
+        <f>'الحاوية 10'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="X18" s="20">
+        <f>الحاوية11!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="Y18" s="20">
+        <f>الحاوية12!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="Z18" s="20">
+        <f>الحاوية13!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="AA18" s="20">
+        <f>الحاوية14!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="AB18" s="20">
+        <f>الحاوية15!D17</f>
+        <v>250</v>
+      </c>
+      <c r="AC18" s="20">
+        <f>الحاوية16!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="AD18" s="20">
+        <f>الحاوية17!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="AE18" s="20" t="str">
+        <f>ثروت1!D17</f>
+        <v>عمال الشركة</v>
+      </c>
+      <c r="AF18" s="20" t="str">
+        <f>ثروت2!D17</f>
+        <v>عمال الشركة</v>
+      </c>
+      <c r="AG18" s="20">
+        <f>'الحاوية 19'!D17</f>
+        <v>1200</v>
+      </c>
+      <c r="AH18" s="6">
+        <f t="shared" si="3"/>
+        <v>20650</v>
+      </c>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="9">
+        <f>الحاوية16!D4</f>
+        <v>45313</v>
+      </c>
+      <c r="C19" s="10">
+        <f>الحاوية16!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D19" s="11">
+        <f>الحاوية16!D11</f>
+        <v>2590</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
+        <v>24605</v>
+      </c>
+      <c r="F19" s="12">
+        <v>34</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
+        <v>836570</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I19" s="11">
+        <v>65</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="M19" s="18" t="str">
+        <f>'الحاوية الاولى'!C18</f>
+        <v>اجرة بسكول</v>
+      </c>
+      <c r="N19" s="20">
+        <f>'الحاوية الاولى'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="O19" s="20">
+        <f>'الحاوية الثانية'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="P19" s="20">
+        <f>'الحاوية الثالثة'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="Q19" s="20">
+        <f>'الحاوية الرابعة'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="R19" s="20">
+        <f>'الحاوية الخامسة'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="S19" s="20">
+        <f>'الحاوية السادسة'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="T19" s="20">
+        <f>'الحاوية 7'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="U19" s="20">
+        <f>'الحاوية 8'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="V19" s="20">
+        <f>'الحاوية 9'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="W19" s="20">
+        <f>'الحاوية 10'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="X19" s="20">
+        <f>الحاوية11!D18</f>
+        <v>65</v>
+      </c>
+      <c r="Y19" s="20">
+        <f>الحاوية12!D18</f>
+        <v>65</v>
+      </c>
+      <c r="Z19" s="20">
+        <f>الحاوية13!D18</f>
+        <v>65</v>
+      </c>
+      <c r="AA19" s="20">
+        <f>الحاوية14!D18</f>
+        <v>65</v>
+      </c>
+      <c r="AB19" s="20">
+        <f>الحاوية15!D18</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="20">
+        <f>الحاوية16!D18</f>
+        <v>65</v>
+      </c>
+      <c r="AD19" s="20">
+        <f>الحاوية17!D18</f>
+        <v>65</v>
+      </c>
+      <c r="AE19" s="20" t="str">
+        <f>ثروت1!D18</f>
+        <v>لا يوجد</v>
+      </c>
+      <c r="AF19" s="20" t="str">
+        <f>ثروت2!D18</f>
+        <v>لا يوجد</v>
+      </c>
+      <c r="AG19" s="20">
+        <f>'الحاوية 19'!D18</f>
+        <v>65</v>
+      </c>
+      <c r="AH19" s="6">
+        <f t="shared" si="3"/>
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="9">
+        <f>الحاوية17!D4</f>
+        <v>45313</v>
+      </c>
+      <c r="C20" s="10">
+        <f>الحاوية17!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D20" s="11">
+        <f>الحاوية17!D11</f>
+        <v>2730</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>25935</v>
+      </c>
+      <c r="F20" s="12">
+        <v>36</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="1"/>
+        <v>933660</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I20" s="11">
+        <v>65</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="M20" s="18" t="str">
+        <f>'الحاوية الاولى'!C19</f>
+        <v>اجمالي الحاوية</v>
+      </c>
+      <c r="N20" s="20">
+        <f>'الحاوية الاولى'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="20">
+        <f>'الحاوية الثانية'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="20">
+        <f>'الحاوية الثالثة'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="20">
+        <f>'الحاوية الرابعة'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="20">
+        <f>'الحاوية الخامسة'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <f>'الحاوية السادسة'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="20">
+        <f>'الحاوية 7'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="20">
+        <f>'الحاوية 8'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="20">
+        <f>'الحاوية 9'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="20">
+        <f>'الحاوية 10'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="20">
+        <f>الحاوية11!D19</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="20">
+        <f>الحاوية12!D19</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="20">
+        <f>الحاوية13!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="20">
+        <f>الحاوية14!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="20">
+        <f>الحاوية15!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="20">
+        <f>الحاوية16!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="20">
+        <f>الحاوية17!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="20">
+        <f>ثروت1!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="20">
+        <f>ثروت2!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20">
+        <f>'الحاوية 19'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="9">
+        <f>ثروت1!D4</f>
+        <v>45316</v>
+      </c>
+      <c r="C21" s="10">
+        <f>ثروت1!D10</f>
+        <v>10</v>
+      </c>
+      <c r="D21" s="11">
+        <f>ثروت1!D11</f>
+        <v>657</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
+        <v>6570</v>
+      </c>
+      <c r="F21" s="12">
+        <v>36</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="1"/>
+        <v>236520</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="M21" s="2">
+        <f>'الحاوية الاولى'!C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="9">
+        <f>ثروت2!D4</f>
+        <v>45316</v>
+      </c>
+      <c r="C22" s="10">
+        <f>ثروت2!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D22" s="11">
+        <f>ثروت2!D11</f>
+        <v>913</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
+        <v>8673.5</v>
+      </c>
+      <c r="F22" s="12">
+        <v>36</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="1"/>
+        <v>312246</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="9">
+        <f>'الحاوية 19'!D4</f>
+        <v>45323</v>
+      </c>
+      <c r="C23" s="10">
+        <f>'الحاوية 19'!D10</f>
+        <v>9.5</v>
+      </c>
+      <c r="D23" s="11">
+        <f>'الحاوية 19'!D11</f>
+        <v>2690</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
+        <v>25555</v>
+      </c>
+      <c r="F23" s="12">
+        <v>30.88</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="1"/>
+        <v>789138.4</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I23" s="11">
+        <v>65</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11">
+        <f>SUBTOTAL(9,C4:C23)</f>
+        <v>193</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" ref="D24:I24" si="4">SUBTOTAL(9,D4:D23)</f>
+        <v>47320</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="4"/>
+        <v>456368.5</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11">
+        <f t="shared" si="4"/>
+        <v>16132214.4</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="4"/>
+        <v>20650</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="4"/>
+        <v>1105</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="46" spans="21:22" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="U46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V46" s="6">
+        <v>456368.5</v>
+      </c>
+    </row>
+    <row r="47" spans="21:22" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="U47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="6">
+        <v>708.38</v>
+      </c>
+    </row>
+    <row r="48" spans="21:22" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="U48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V48" s="6">
+        <v>16132214.4</v>
+      </c>
+    </row>
+    <row r="49" spans="21:22" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="U49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V49" s="6">
+        <v>20650</v>
+      </c>
+    </row>
+    <row r="50" spans="21:22" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="U50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V50" s="6">
+        <v>1105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="47" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -785,11 +3335,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -799,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45252</v>
+        <v>45290</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -811,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -823,7 +3373,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -835,7 +3385,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -847,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -859,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -871,7 +3421,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -883,7 +3433,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>2600</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -918,8 +3468,8 @@
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
-        <v>26000</v>
+      <c r="D14" s="4">
+        <v>25555</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -930,7 +3480,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -940,218 +3492,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D19"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <f>B4+1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <f t="shared" ref="B6:B18" si="0">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <v>25555</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -1195,7 +3539,7 @@
   <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1206,11 +3550,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -1232,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1244,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1256,7 +3600,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1268,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1351,7 +3695,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -1361,7 +3707,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -1405,7 +3754,7 @@
   <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1416,11 +3765,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -1430,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45303</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1442,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1454,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1478,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1490,7 +3839,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,7 +3851,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1514,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>2600</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1550,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>26000</v>
+        <v>25555</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,7 +3910,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -1571,7 +3922,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -1614,8 +3968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1626,11 +3980,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -1652,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1664,7 +4018,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1676,7 +4030,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,7 +4042,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1771,7 +4125,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -1781,7 +4137,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>936000</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -1824,8 +4183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1836,11 +4195,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -1850,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45304</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1862,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1874,7 +4233,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1886,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1898,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1981,7 +4340,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -1991,7 +4352,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>936000</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -2034,8 +4398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2046,11 +4410,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -2060,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45313</v>
+        <v>45304</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2072,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2084,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2096,7 +4460,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2108,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>530</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2180,8 +4544,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4">
-        <f>D11*9.5</f>
-        <v>5035</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2192,7 +4555,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -2202,7 +4567,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>936000</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -2213,7 +4581,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="2">
-        <v>250</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2224,7 +4592,9 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
@@ -2240,6 +4610,436 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D11*9.5</f>
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>181260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D11*D10</f>
+        <v>24605</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>836570</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
@@ -2255,11 +5055,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -2281,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2293,217 +5093,6 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <f>D11*D10</f>
-        <v>24605</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D19"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45313</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <f>B4+1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <f t="shared" ref="B6:B18" si="0">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2612,7 +5201,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -2622,7 +5213,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>933660</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -2646,213 +5240,6 @@
       </c>
       <c r="D18" s="2">
         <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D19"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45316</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <f>B4+1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <f t="shared" ref="B6:B18" si="0">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <f>D11*D10</f>
-        <v>6570</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
@@ -2872,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D18"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2884,11 +5271,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -2920,7 +5307,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2966,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2978,7 +5365,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>913</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3015,7 +5402,7 @@
       </c>
       <c r="D14" s="4">
         <f>D11*D10</f>
-        <v>8673.5</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3026,7 +5413,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -3036,7 +5425,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>236520</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -3080,7 +5472,7 @@
   <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3091,11 +5483,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3105,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45258</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3117,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3129,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,7 +5533,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3153,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3165,7 +5557,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3225,6 +5617,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2">
+        <f>D11*D10</f>
         <v>26000</v>
       </c>
     </row>
@@ -3236,7 +5629,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -3246,7 +5641,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>871000</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -3274,7 +5672,9 @@
     </row>
     <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
   </sheetData>
@@ -3288,13 +5688,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3305,11 +5702,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3319,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45323</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3330,9 +5727,7 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -3343,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3354,9 +5749,7 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -3367,7 +5760,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3379,7 +5772,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3403,7 +5796,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>2690</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,7 +5808,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3427,7 +5820,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3440,7 +5833,7 @@
       </c>
       <c r="D14" s="4">
         <f>D11*D10</f>
-        <v>25555</v>
+        <v>8673.5</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3451,7 +5844,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -3461,7 +5856,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>312246</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -3471,8 +5869,8 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2">
-        <v>1200</v>
+      <c r="D17" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3483,8 +5881,8 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2">
-        <v>65</v>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
@@ -3497,19 +5895,18 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3520,11 +5917,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3534,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45267</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3546,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3558,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3570,7 +5967,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3582,7 +5979,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3630,7 +6027,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3654,6 +6051,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4">
+        <f>D11*D10</f>
         <v>25555</v>
       </c>
     </row>
@@ -3665,7 +6063,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>30.88</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -3675,7 +6075,226 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>789138.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B18" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>884000</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -3717,10 +6336,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3731,11 +6353,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3745,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45272</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3757,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3769,7 +6391,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3781,7 +6403,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3793,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3841,7 +6463,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3876,7 +6498,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -3886,7 +6510,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -3930,8 +6557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3942,11 +6569,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3956,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45275</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3968,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3980,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3992,7 +6619,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,7 +6631,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,7 +6643,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4087,7 +6714,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -4097,7 +6726,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -4141,8 +6773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4153,11 +6785,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -4167,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45282</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4179,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4191,7 +6823,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4203,7 +6835,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4215,7 +6847,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4263,7 +6895,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4298,7 +6930,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -4308,7 +6942,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -4344,6 +6981,7 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4351,8 +6989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4363,11 +7001,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -4377,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45289</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4389,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4401,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4413,7 +7051,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4437,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4508,7 +7146,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -4518,7 +7158,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -4561,8 +7204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4573,11 +7216,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -4587,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>45290</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4599,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4611,7 +7254,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4623,7 +7266,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4635,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4647,7 +7290,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4718,7 +7361,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -4728,7 +7373,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -4771,8 +7419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4783,11 +7431,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -4809,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4821,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4833,7 +7481,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4845,7 +7493,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4928,7 +7576,9 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -4938,7 +7588,10 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <f>D15*D14</f>
+        <v>919980</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">

--- a/الحاويات.xlsx
+++ b/الحاويات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="939"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="939"/>
   </bookViews>
   <sheets>
     <sheet name="اجمالي الحاويات" sheetId="22" r:id="rId1"/>
@@ -629,6 +629,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,15 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,10 +957,10 @@
   <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:AG20"/>
+      <selection pane="bottomRight" sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,12 +1037,12 @@
       <c r="J3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1079,67 +1079,67 @@
       </c>
       <c r="J4" s="8"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="X4" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Y4" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="Z4" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AA4" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AB4" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AC4" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AD4" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AF4" s="18" t="s">
+      <c r="AF4" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AG4" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1180,87 +1180,87 @@
       <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="18" t="str">
+      <c r="M5" s="15" t="str">
         <f>'الحاوية الاولى'!C4</f>
         <v>التاريخ</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="16">
         <f>'الحاوية الاولى'!D4</f>
         <v>45252</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="16">
         <f>'الحاوية الثانية'!D4</f>
         <v>45258</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="16">
         <f>'الحاوية الثالثة'!D4</f>
         <v>45267</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="16">
         <f>'الحاوية الرابعة'!D4</f>
         <v>45272</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="16">
         <f>'الحاوية الخامسة'!D4</f>
         <v>45275</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="16">
         <f>'الحاوية السادسة'!D4</f>
         <v>45282</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="16">
         <f>'الحاوية 7'!D4</f>
         <v>45289</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="16">
         <f>'الحاوية 8'!D4</f>
         <v>45290</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="16">
         <f>'الحاوية 9'!D4</f>
         <v>45290</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="16">
         <f>'الحاوية 10'!D4</f>
         <v>45292</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="16">
         <f>الحاوية11!D4</f>
         <v>45292</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="16">
         <f>الحاوية12!D4</f>
         <v>45303</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="16">
         <f>الحاوية13!D4</f>
         <v>45303</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="16">
         <f>الحاوية14!D4</f>
         <v>45304</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="16">
         <f>الحاوية15!D4</f>
         <v>45313</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="16">
         <f>الحاوية16!D4</f>
         <v>45313</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="16">
         <f>الحاوية17!D4</f>
         <v>45313</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="16">
         <f>ثروت1!D4</f>
         <v>45316</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="16">
         <f>ثروت2!D4</f>
         <v>45316</v>
       </c>
-      <c r="AG5" s="19">
+      <c r="AG5" s="16">
         <f>'الحاوية 19'!D4</f>
         <v>45323</v>
       </c>
@@ -1305,87 +1305,87 @@
         <f>L5+1</f>
         <v>2</v>
       </c>
-      <c r="M6" s="18" t="str">
+      <c r="M6" s="15" t="str">
         <f>'الحاوية الاولى'!C5</f>
         <v>رقم الحاوية</v>
       </c>
-      <c r="N6" s="20" t="str">
+      <c r="N6" s="17" t="str">
         <f>'الحاوية الاولى'!D5</f>
         <v>ONEV 109446 4</v>
       </c>
-      <c r="O6" s="20" t="str">
+      <c r="O6" s="17" t="str">
         <f>'الحاوية الثانية'!D5</f>
         <v>TGBU 454797 5</v>
       </c>
-      <c r="P6" s="20" t="str">
+      <c r="P6" s="17" t="str">
         <f>'الحاوية الثالثة'!D5</f>
         <v>TCLV153523 6</v>
       </c>
-      <c r="Q6" s="20" t="str">
+      <c r="Q6" s="17" t="str">
         <f>'الحاوية الرابعة'!D5</f>
         <v>BMOU 627100 1</v>
       </c>
-      <c r="R6" s="20" t="str">
+      <c r="R6" s="17" t="str">
         <f>'الحاوية الخامسة'!D5</f>
         <v>TCNu-581065 3</v>
       </c>
-      <c r="S6" s="20" t="str">
+      <c r="S6" s="17" t="str">
         <f>'الحاوية السادسة'!D5</f>
         <v>TLLu-583964 9</v>
       </c>
-      <c r="T6" s="20" t="str">
+      <c r="T6" s="17" t="str">
         <f>'الحاوية 7'!D5</f>
         <v>DRYu962487 o</v>
       </c>
-      <c r="U6" s="20" t="str">
+      <c r="U6" s="17" t="str">
         <f>'الحاوية 8'!D5</f>
         <v>ONEU-502918 0</v>
       </c>
-      <c r="V6" s="20" t="str">
+      <c r="V6" s="17" t="str">
         <f>'الحاوية 9'!D5</f>
         <v>CAIU-946662 4</v>
       </c>
-      <c r="W6" s="20" t="str">
+      <c r="W6" s="17" t="str">
         <f>'الحاوية 10'!D5</f>
         <v>ONEU-125393 / 0</v>
       </c>
-      <c r="X6" s="20" t="str">
+      <c r="X6" s="17" t="str">
         <f>الحاوية11!D5</f>
         <v>GCXU-524553 / 9</v>
       </c>
-      <c r="Y6" s="20" t="str">
+      <c r="Y6" s="17" t="str">
         <f>الحاوية12!D5</f>
         <v>SEKU-468020 8</v>
       </c>
-      <c r="Z6" s="20" t="str">
+      <c r="Z6" s="17" t="str">
         <f>الحاوية13!D5</f>
         <v>OOCU 778919 1</v>
       </c>
-      <c r="AA6" s="20" t="str">
+      <c r="AA6" s="17" t="str">
         <f>الحاوية14!D5</f>
         <v>TGBU 999440 9</v>
       </c>
-      <c r="AB6" s="20" t="str">
+      <c r="AB6" s="17" t="str">
         <f>الحاوية15!D5</f>
         <v>TCNU 803816 3</v>
       </c>
-      <c r="AC6" s="20" t="str">
+      <c r="AC6" s="17" t="str">
         <f>الحاوية16!D5</f>
         <v>TCNU 847778 3</v>
       </c>
-      <c r="AD6" s="20" t="str">
+      <c r="AD6" s="17" t="str">
         <f>الحاوية17!D5</f>
         <v>FCIU-854844 9</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE6" s="17">
         <f>ثروت1!D5</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AF6" s="17">
         <f>ثروت2!D5</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="20" t="str">
+      <c r="AG6" s="17" t="str">
         <f>'الحاوية 19'!D5</f>
         <v>CMAU-857511 4</v>
       </c>
@@ -1430,87 +1430,87 @@
         <f t="shared" ref="L7:L14" si="2">L6+1</f>
         <v>3</v>
       </c>
-      <c r="M7" s="18" t="str">
+      <c r="M7" s="15" t="str">
         <f>'الحاوية الاولى'!C6</f>
         <v>رقم السيارة</v>
       </c>
-      <c r="N7" s="20" t="str">
+      <c r="N7" s="17" t="str">
         <f>'الحاوية الاولى'!D6</f>
         <v xml:space="preserve">6289 د ي ع </v>
       </c>
-      <c r="O7" s="20" t="str">
+      <c r="O7" s="17" t="str">
         <f>'الحاوية الثانية'!D6</f>
         <v xml:space="preserve">6917 د ي ع </v>
       </c>
-      <c r="P7" s="20" t="str">
+      <c r="P7" s="17" t="str">
         <f>'الحاوية الثالثة'!D6</f>
         <v>9147 ل س ج</v>
       </c>
-      <c r="Q7" s="20" t="str">
+      <c r="Q7" s="17" t="str">
         <f>'الحاوية الرابعة'!D6</f>
         <v>4539 ل ع د</v>
       </c>
-      <c r="R7" s="20" t="str">
+      <c r="R7" s="17" t="str">
         <f>'الحاوية الخامسة'!D6</f>
         <v>7961 ل ي ج</v>
       </c>
-      <c r="S7" s="20" t="str">
+      <c r="S7" s="17" t="str">
         <f>'الحاوية السادسة'!D6</f>
         <v>3647 ل ق ط</v>
       </c>
-      <c r="T7" s="20" t="str">
+      <c r="T7" s="17" t="str">
         <f>'الحاوية 7'!D6</f>
         <v xml:space="preserve">3647 ل ق ط </v>
       </c>
-      <c r="U7" s="20" t="str">
+      <c r="U7" s="17" t="str">
         <f>'الحاوية 8'!D6</f>
         <v>5427 ط ء ي</v>
       </c>
-      <c r="V7" s="20" t="str">
+      <c r="V7" s="17" t="str">
         <f>'الحاوية 9'!D6</f>
         <v>7728 ط د ي</v>
       </c>
-      <c r="W7" s="20" t="str">
+      <c r="W7" s="17" t="str">
         <f>'الحاوية 10'!D6</f>
         <v xml:space="preserve">6873 ط م ر </v>
       </c>
-      <c r="X7" s="20" t="str">
+      <c r="X7" s="17" t="str">
         <f>الحاوية11!D6</f>
         <v>8293 ج م ج</v>
       </c>
-      <c r="Y7" s="20" t="str">
+      <c r="Y7" s="17" t="str">
         <f>الحاوية12!D6</f>
         <v>576 ل ق أ</v>
       </c>
-      <c r="Z7" s="20" t="str">
+      <c r="Z7" s="17" t="str">
         <f>الحاوية13!D6</f>
         <v>8742 ل ق ط</v>
       </c>
-      <c r="AA7" s="20" t="str">
+      <c r="AA7" s="17" t="str">
         <f>الحاوية14!D6</f>
         <v>8735 ل ق ط</v>
       </c>
-      <c r="AB7" s="20" t="str">
+      <c r="AB7" s="17" t="str">
         <f>الحاوية15!D6</f>
         <v>9878 س ل ب</v>
       </c>
-      <c r="AC7" s="20" t="str">
+      <c r="AC7" s="17" t="str">
         <f>الحاوية16!D6</f>
         <v>9567 س ف ر</v>
       </c>
-      <c r="AD7" s="20" t="str">
+      <c r="AD7" s="17" t="str">
         <f>الحاوية17!D6</f>
         <v>2855 س ط ص</v>
       </c>
-      <c r="AE7" s="20" t="str">
+      <c r="AE7" s="17" t="str">
         <f>ثروت1!D6</f>
         <v>جامبو 1</v>
       </c>
-      <c r="AF7" s="20" t="str">
+      <c r="AF7" s="17" t="str">
         <f>ثروت2!D6</f>
         <v>جامبو 2</v>
       </c>
-      <c r="AG7" s="20" t="str">
+      <c r="AG7" s="17" t="str">
         <f>'الحاوية 19'!D6</f>
         <v>1681 س م ب</v>
       </c>
@@ -1555,87 +1555,87 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M8" s="18" t="str">
+      <c r="M8" s="15" t="str">
         <f>'الحاوية الاولى'!C7</f>
         <v>رقم السيارة 2</v>
       </c>
-      <c r="N8" s="20" t="str">
+      <c r="N8" s="17" t="str">
         <f>'الحاوية الاولى'!D7</f>
         <v>1891 د ن ي</v>
       </c>
-      <c r="O8" s="20" t="str">
+      <c r="O8" s="17" t="str">
         <f>'الحاوية الثانية'!D7</f>
         <v>8464 د ي ق</v>
       </c>
-      <c r="P8" s="20" t="str">
+      <c r="P8" s="17" t="str">
         <f>'الحاوية الثالثة'!D7</f>
         <v>5912 ل ي ب</v>
       </c>
-      <c r="Q8" s="20" t="str">
+      <c r="Q8" s="17" t="str">
         <f>'الحاوية الرابعة'!D7</f>
         <v>5178 ل ق ص</v>
       </c>
-      <c r="R8" s="20" t="str">
+      <c r="R8" s="17" t="str">
         <f>'الحاوية الخامسة'!D7</f>
         <v>7128 ل ع د</v>
       </c>
-      <c r="S8" s="20" t="str">
+      <c r="S8" s="17" t="str">
         <f>'الحاوية السادسة'!D7</f>
         <v>5769 ل ب ي</v>
       </c>
-      <c r="T8" s="20" t="str">
+      <c r="T8" s="17" t="str">
         <f>'الحاوية 7'!D7</f>
         <v>5769 ل ب ى</v>
       </c>
-      <c r="U8" s="20" t="str">
+      <c r="U8" s="17" t="str">
         <f>'الحاوية 8'!D7</f>
         <v>6873 ط م و</v>
       </c>
-      <c r="V8" s="20" t="str">
+      <c r="V8" s="17" t="str">
         <f>'الحاوية 9'!D7</f>
         <v>8297 ط م ر</v>
       </c>
-      <c r="W8" s="20" t="str">
+      <c r="W8" s="17" t="str">
         <f>'الحاوية 10'!D7</f>
         <v>5427 ط د ي</v>
       </c>
-      <c r="X8" s="20" t="str">
+      <c r="X8" s="17" t="str">
         <f>الحاوية11!D7</f>
         <v>1837 ط م ط</v>
       </c>
-      <c r="Y8" s="20" t="str">
+      <c r="Y8" s="17" t="str">
         <f>الحاوية12!D7</f>
         <v xml:space="preserve">4269 ل ع د </v>
       </c>
-      <c r="Z8" s="20" t="str">
+      <c r="Z8" s="17" t="str">
         <f>الحاوية13!D7</f>
         <v>9618 ل ب ه</v>
       </c>
-      <c r="AA8" s="20" t="str">
+      <c r="AA8" s="17" t="str">
         <f>الحاوية14!D7</f>
         <v>9471 ل ب ه</v>
       </c>
-      <c r="AB8" s="20" t="str">
+      <c r="AB8" s="17" t="str">
         <f>الحاوية15!D7</f>
         <v>7516 س ب ح</v>
       </c>
-      <c r="AC8" s="20" t="str">
+      <c r="AC8" s="17" t="str">
         <f>الحاوية16!D7</f>
         <v>4526 س ل ب</v>
       </c>
-      <c r="AD8" s="20" t="str">
+      <c r="AD8" s="17" t="str">
         <f>الحاوية17!D7</f>
         <v>3731 س د ي</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AE8" s="17">
         <f>ثروت1!D7</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="AF8" s="17">
         <f>ثروت2!D7</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="20" t="str">
+      <c r="AG8" s="17" t="str">
         <f>'الحاوية 19'!D7</f>
         <v>3126 س ن ب</v>
       </c>
@@ -1680,87 +1680,87 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M9" s="18" t="str">
+      <c r="M9" s="15" t="str">
         <f>'الحاوية الاولى'!C8</f>
         <v>اسم السائق</v>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="17" t="str">
         <f>'الحاوية الاولى'!D8</f>
         <v>احمد السيد محمد سليمان</v>
       </c>
-      <c r="O9" s="20" t="str">
+      <c r="O9" s="17" t="str">
         <f>'الحاوية الثانية'!D8</f>
         <v>محمد الشحات محمد الشحات</v>
       </c>
-      <c r="P9" s="20" t="str">
+      <c r="P9" s="17" t="str">
         <f>'الحاوية الثالثة'!D8</f>
         <v>رضا كمال محمد ناجي</v>
       </c>
-      <c r="Q9" s="20" t="str">
+      <c r="Q9" s="17" t="str">
         <f>'الحاوية الرابعة'!D8</f>
         <v>وحيد حسن عبدالقادر ابراهيم</v>
       </c>
-      <c r="R9" s="20" t="str">
+      <c r="R9" s="17" t="str">
         <f>'الحاوية الخامسة'!D8</f>
         <v>ابراهيم عبدالسميع محمد يوسف</v>
       </c>
-      <c r="S9" s="20" t="str">
+      <c r="S9" s="17" t="str">
         <f>'الحاوية السادسة'!D8</f>
         <v>حسن ابراهيم حسن ابو عبدالله</v>
       </c>
-      <c r="T9" s="20" t="str">
+      <c r="T9" s="17" t="str">
         <f>'الحاوية 7'!D8</f>
         <v>حسن ابراهيم حسن ابو عبدالله</v>
       </c>
-      <c r="U9" s="20" t="str">
+      <c r="U9" s="17" t="str">
         <f>'الحاوية 8'!D8</f>
         <v>شريف عبد الحكيم عبده الشربيني</v>
       </c>
-      <c r="V9" s="20" t="str">
+      <c r="V9" s="17" t="str">
         <f>'الحاوية 9'!D8</f>
         <v>شريف عبدالمنعم خالد عبدالغفار</v>
       </c>
-      <c r="W9" s="20" t="str">
+      <c r="W9" s="17" t="str">
         <f>'الحاوية 10'!D8</f>
         <v>محمود عبداللطيف محمد الشربيني</v>
       </c>
-      <c r="X9" s="20" t="str">
+      <c r="X9" s="17" t="str">
         <f>الحاوية11!D8</f>
         <v>نشأت محمد محمد حسين</v>
       </c>
-      <c r="Y9" s="20" t="str">
+      <c r="Y9" s="17" t="str">
         <f>الحاوية12!D8</f>
         <v>احمد جابر احمد جابر ناجي</v>
       </c>
-      <c r="Z9" s="20" t="str">
+      <c r="Z9" s="17" t="str">
         <f>الحاوية13!D8</f>
         <v>عبدالعزيز حامد عبدالعزيز شلبي</v>
       </c>
-      <c r="AA9" s="20" t="str">
+      <c r="AA9" s="17" t="str">
         <f>الحاوية14!D8</f>
         <v>محمد احمد ابراهيم السيد</v>
       </c>
-      <c r="AB9" s="20" t="str">
+      <c r="AB9" s="17" t="str">
         <f>الحاوية15!D8</f>
         <v>حسين شحاته حمزه متولي</v>
       </c>
-      <c r="AC9" s="20" t="str">
+      <c r="AC9" s="17" t="str">
         <f>الحاوية16!D8</f>
         <v>حسن ابراهيم حسن مرسي</v>
       </c>
-      <c r="AD9" s="20" t="str">
+      <c r="AD9" s="17" t="str">
         <f>الحاوية17!D8</f>
         <v>مصطفى رشاد علي امام</v>
       </c>
-      <c r="AE9" s="20" t="str">
+      <c r="AE9" s="17" t="str">
         <f>ثروت1!D8</f>
         <v>ثروت</v>
       </c>
-      <c r="AF9" s="20" t="str">
+      <c r="AF9" s="17" t="str">
         <f>ثروت2!D8</f>
         <v>ثروت</v>
       </c>
-      <c r="AG9" s="20" t="str">
+      <c r="AG9" s="17" t="str">
         <f>'الحاوية 19'!D8</f>
         <v>احمد حلمي موسى</v>
       </c>
@@ -1805,87 +1805,87 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M10" s="18" t="str">
+      <c r="M10" s="15" t="str">
         <f>'الحاوية الاولى'!C9</f>
         <v>اسم المندوب المستلم</v>
       </c>
-      <c r="N10" s="20" t="str">
+      <c r="N10" s="17" t="str">
         <f>'الحاوية الاولى'!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="O10" s="20" t="str">
+      <c r="O10" s="17" t="str">
         <f>'الحاوية الثانية'!D9</f>
         <v>احمد عبدالعليم المصري</v>
       </c>
-      <c r="P10" s="20" t="str">
+      <c r="P10" s="17" t="str">
         <f>'الحاوية الثالثة'!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="Q10" s="20" t="str">
+      <c r="Q10" s="17" t="str">
         <f>'الحاوية الرابعة'!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="R10" s="20" t="str">
+      <c r="R10" s="17" t="str">
         <f>'الحاوية الخامسة'!D9</f>
         <v>احمد الشرقاوي</v>
       </c>
-      <c r="S10" s="20" t="str">
+      <c r="S10" s="17" t="str">
         <f>'الحاوية السادسة'!D9</f>
         <v>احمد الشرقاوي</v>
       </c>
-      <c r="T10" s="20" t="str">
+      <c r="T10" s="17" t="str">
         <f>'الحاوية 7'!D9</f>
         <v>محمود جمال</v>
       </c>
-      <c r="U10" s="20" t="str">
+      <c r="U10" s="17" t="str">
         <f>'الحاوية 8'!D9</f>
         <v>احمد الشرقاوي</v>
       </c>
-      <c r="V10" s="20" t="str">
+      <c r="V10" s="17" t="str">
         <f>'الحاوية 9'!D9</f>
         <v>احمد الشرقاوي</v>
       </c>
-      <c r="W10" s="20" t="str">
+      <c r="W10" s="17" t="str">
         <f>'الحاوية 10'!D9</f>
         <v>احمد العشري</v>
       </c>
-      <c r="X10" s="20" t="str">
+      <c r="X10" s="17" t="str">
         <f>الحاوية11!D9</f>
         <v>احمد العشري</v>
       </c>
-      <c r="Y10" s="20" t="str">
+      <c r="Y10" s="17" t="str">
         <f>الحاوية12!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="Z10" s="20" t="str">
+      <c r="Z10" s="17" t="str">
         <f>الحاوية13!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="AA10" s="20" t="str">
+      <c r="AA10" s="17" t="str">
         <f>الحاوية14!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="AB10" s="20" t="str">
+      <c r="AB10" s="17" t="str">
         <f>الحاوية15!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="AC10" s="20" t="str">
+      <c r="AC10" s="17" t="str">
         <f>الحاوية16!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="AD10" s="20" t="str">
+      <c r="AD10" s="17" t="str">
         <f>الحاوية17!D9</f>
         <v>محمد عاطف</v>
       </c>
-      <c r="AE10" s="20" t="str">
+      <c r="AE10" s="17" t="str">
         <f>ثروت1!D9</f>
         <v>ثروت</v>
       </c>
-      <c r="AF10" s="20" t="str">
+      <c r="AF10" s="17" t="str">
         <f>ثروت2!D9</f>
         <v>ثروت</v>
       </c>
-      <c r="AG10" s="20" t="str">
+      <c r="AG10" s="17" t="str">
         <f>'الحاوية 19'!D9</f>
         <v>محمد عاطف</v>
       </c>
@@ -1928,87 +1928,87 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M11" s="18" t="str">
+      <c r="M11" s="15" t="str">
         <f>'الحاوية الاولى'!C10</f>
         <v>وزن الكرتون</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="17">
         <f>'الحاوية الاولى'!D10</f>
         <v>10</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="17">
         <f>'الحاوية الثانية'!D10</f>
         <v>10</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="17">
         <f>'الحاوية الثالثة'!D10</f>
         <v>9.5</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="17">
         <f>'الحاوية الرابعة'!D10</f>
         <v>9.5</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="17">
         <f>'الحاوية الخامسة'!D10</f>
         <v>9.5</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="17">
         <f>'الحاوية السادسة'!D10</f>
         <v>9.5</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="17">
         <f>'الحاوية 7'!D10</f>
         <v>9.5</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="17">
         <f>'الحاوية 8'!D10</f>
         <v>9.5</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="17">
         <f>'الحاوية 9'!D10</f>
         <v>9.5</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="17">
         <f>'الحاوية 10'!D10</f>
         <v>9.5</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X11" s="17">
         <f>الحاوية11!D10</f>
         <v>9.5</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y11" s="17">
         <f>الحاوية12!D10</f>
         <v>10</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="Z11" s="17">
         <f>الحاوية13!D10</f>
         <v>10</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA11" s="17">
         <f>الحاوية14!D10</f>
         <v>10</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="AB11" s="17">
         <f>الحاوية15!D10</f>
         <v>9.5</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AC11" s="17">
         <f>الحاوية16!D10</f>
         <v>9.5</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AD11" s="17">
         <f>الحاوية17!D10</f>
         <v>9.5</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AE11" s="17">
         <f>ثروت1!D10</f>
         <v>10</v>
       </c>
-      <c r="AF11" s="20">
+      <c r="AF11" s="17">
         <f>ثروت2!D10</f>
         <v>9.5</v>
       </c>
-      <c r="AG11" s="20">
+      <c r="AG11" s="17">
         <f>'الحاوية 19'!D10</f>
         <v>9.5</v>
       </c>
@@ -2051,87 +2051,87 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M12" s="18" t="str">
+      <c r="M12" s="15" t="str">
         <f>'الحاوية الاولى'!C11</f>
         <v>عدد الكرتون</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="17">
         <f>'الحاوية الاولى'!D11</f>
         <v>2600</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="17">
         <f>'الحاوية الثانية'!D11</f>
         <v>2600</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="17">
         <f>'الحاوية الثالثة'!D11</f>
         <v>2690</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="17">
         <f>'الحاوية الرابعة'!D11</f>
         <v>2690</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="17">
         <f>'الحاوية الخامسة'!D11</f>
         <v>2690</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="17">
         <f>'الحاوية السادسة'!D11</f>
         <v>2690</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="17">
         <f>'الحاوية 7'!D11</f>
         <v>2690</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="17">
         <f>'الحاوية 8'!D11</f>
         <v>2690</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="17">
         <f>'الحاوية 9'!D11</f>
         <v>2690</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="17">
         <f>'الحاوية 10'!D11</f>
         <v>2690</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X12" s="17">
         <f>الحاوية11!D11</f>
         <v>2690</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="Y12" s="17">
         <f>الحاوية12!D11</f>
         <v>2600</v>
       </c>
-      <c r="Z12" s="20">
+      <c r="Z12" s="17">
         <f>الحاوية13!D11</f>
         <v>2600</v>
       </c>
-      <c r="AA12" s="20">
+      <c r="AA12" s="17">
         <f>الحاوية14!D11</f>
         <v>2600</v>
       </c>
-      <c r="AB12" s="20">
+      <c r="AB12" s="17">
         <f>الحاوية15!D11</f>
         <v>530</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AC12" s="17">
         <f>الحاوية16!D11</f>
         <v>2590</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AD12" s="17">
         <f>الحاوية17!D11</f>
         <v>2730</v>
       </c>
-      <c r="AE12" s="20">
+      <c r="AE12" s="17">
         <f>ثروت1!D11</f>
         <v>657</v>
       </c>
-      <c r="AF12" s="20">
+      <c r="AF12" s="17">
         <f>ثروت2!D11</f>
         <v>913</v>
       </c>
-      <c r="AG12" s="20">
+      <c r="AG12" s="17">
         <f>'الحاوية 19'!D11</f>
         <v>2690</v>
       </c>
@@ -2174,87 +2174,87 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M13" s="18" t="str">
+      <c r="M13" s="15" t="str">
         <f>'الحاوية الاولى'!C12</f>
         <v>استيكر</v>
       </c>
-      <c r="N13" s="20" t="str">
+      <c r="N13" s="17" t="str">
         <f>'الحاوية الاولى'!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="O13" s="20" t="str">
+      <c r="O13" s="17" t="str">
         <f>'الحاوية الثانية'!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="P13" s="20" t="str">
+      <c r="P13" s="17" t="str">
         <f>'الحاوية الثالثة'!D12</f>
         <v xml:space="preserve"> يوجد</v>
       </c>
-      <c r="Q13" s="20" t="str">
+      <c r="Q13" s="17" t="str">
         <f>'الحاوية الرابعة'!D12</f>
         <v>لا يوجد</v>
       </c>
-      <c r="R13" s="20" t="str">
+      <c r="R13" s="17" t="str">
         <f>'الحاوية الخامسة'!D12</f>
         <v>لا يوجد</v>
       </c>
-      <c r="S13" s="20" t="str">
+      <c r="S13" s="17" t="str">
         <f>'الحاوية السادسة'!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="T13" s="20" t="str">
+      <c r="T13" s="17" t="str">
         <f>'الحاوية 7'!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="U13" s="20" t="str">
+      <c r="U13" s="17" t="str">
         <f>'الحاوية 8'!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="V13" s="20" t="str">
+      <c r="V13" s="17" t="str">
         <f>'الحاوية 9'!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="W13" s="20" t="str">
+      <c r="W13" s="17" t="str">
         <f>'الحاوية 10'!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="X13" s="20" t="str">
+      <c r="X13" s="17" t="str">
         <f>الحاوية11!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="Y13" s="20" t="str">
+      <c r="Y13" s="17" t="str">
         <f>الحاوية12!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="Z13" s="20" t="str">
+      <c r="Z13" s="17" t="str">
         <f>الحاوية13!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="AA13" s="20" t="str">
+      <c r="AA13" s="17" t="str">
         <f>الحاوية14!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="AB13" s="20" t="str">
+      <c r="AB13" s="17" t="str">
         <f>الحاوية15!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="AC13" s="20" t="str">
+      <c r="AC13" s="17" t="str">
         <f>الحاوية16!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="AD13" s="20" t="str">
+      <c r="AD13" s="17" t="str">
         <f>الحاوية17!D12</f>
         <v>يوجد</v>
       </c>
-      <c r="AE13" s="20" t="str">
+      <c r="AE13" s="17" t="str">
         <f>ثروت1!D12</f>
         <v>لا يوجد</v>
       </c>
-      <c r="AF13" s="20" t="str">
+      <c r="AF13" s="17" t="str">
         <f>ثروت2!D12</f>
         <v>لا يوجد</v>
       </c>
-      <c r="AG13" s="20" t="str">
+      <c r="AG13" s="17" t="str">
         <f>'الحاوية 19'!D12</f>
         <v>يوجد</v>
       </c>
@@ -2297,87 +2297,87 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M14" s="18" t="str">
+      <c r="M14" s="15" t="str">
         <f>'الحاوية الاولى'!C13</f>
         <v>شرينك</v>
       </c>
-      <c r="N14" s="20" t="str">
+      <c r="N14" s="17" t="str">
         <f>'الحاوية الاولى'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="O14" s="20" t="str">
+      <c r="O14" s="17" t="str">
         <f>'الحاوية الثانية'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="P14" s="20" t="str">
+      <c r="P14" s="17" t="str">
         <f>'الحاوية الثالثة'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="Q14" s="20" t="str">
+      <c r="Q14" s="17" t="str">
         <f>'الحاوية الرابعة'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="R14" s="20" t="str">
+      <c r="R14" s="17" t="str">
         <f>'الحاوية الخامسة'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="S14" s="20" t="str">
+      <c r="S14" s="17" t="str">
         <f>'الحاوية السادسة'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="T14" s="20" t="str">
+      <c r="T14" s="17" t="str">
         <f>'الحاوية 7'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="U14" s="20" t="str">
+      <c r="U14" s="17" t="str">
         <f>'الحاوية 8'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="V14" s="20" t="str">
+      <c r="V14" s="17" t="str">
         <f>'الحاوية 9'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="W14" s="20" t="str">
+      <c r="W14" s="17" t="str">
         <f>'الحاوية 10'!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="X14" s="20" t="str">
+      <c r="X14" s="17" t="str">
         <f>الحاوية11!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="Y14" s="20" t="str">
+      <c r="Y14" s="17" t="str">
         <f>الحاوية12!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="Z14" s="20" t="str">
+      <c r="Z14" s="17" t="str">
         <f>الحاوية13!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="AA14" s="20" t="str">
+      <c r="AA14" s="17" t="str">
         <f>الحاوية14!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="AB14" s="20" t="str">
+      <c r="AB14" s="17" t="str">
         <f>الحاوية15!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="AC14" s="20" t="str">
+      <c r="AC14" s="17" t="str">
         <f>الحاوية16!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="AD14" s="20" t="str">
+      <c r="AD14" s="17" t="str">
         <f>الحاوية17!D13</f>
         <v>يوجد</v>
       </c>
-      <c r="AE14" s="20" t="str">
+      <c r="AE14" s="17" t="str">
         <f>ثروت1!D13</f>
         <v>لا يوجد</v>
       </c>
-      <c r="AF14" s="20" t="str">
+      <c r="AF14" s="17" t="str">
         <f>ثروت2!D13</f>
         <v>لا يوجد</v>
       </c>
-      <c r="AG14" s="20" t="str">
+      <c r="AG14" s="17" t="str">
         <f>'الحاوية 19'!D13</f>
         <v>يوجد</v>
       </c>
@@ -2419,87 +2419,87 @@
       </c>
       <c r="J15" s="8"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="18" t="str">
+      <c r="M15" s="15" t="str">
         <f>'الحاوية الاولى'!C14</f>
         <v>اجمالي الكمية بالكيلو</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="17">
         <f>'الحاوية الاولى'!D14</f>
         <v>26000</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="17">
         <f>'الحاوية الثانية'!D14</f>
         <v>26000</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="17">
         <f>'الحاوية الثالثة'!D14</f>
         <v>25555</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="17">
         <f>'الحاوية الرابعة'!D14</f>
         <v>25555</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="17">
         <f>'الحاوية الخامسة'!D14</f>
         <v>25555</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="17">
         <f>'الحاوية السادسة'!D14</f>
         <v>25555</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="17">
         <f>'الحاوية 7'!D14</f>
         <v>25555</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="17">
         <f>'الحاوية 8'!D14</f>
         <v>25555</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="17">
         <f>'الحاوية 9'!D14</f>
         <v>25555</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="17">
         <f>'الحاوية 10'!D14</f>
         <v>25555</v>
       </c>
-      <c r="X15" s="20">
+      <c r="X15" s="17">
         <f>الحاوية11!D14</f>
         <v>25555</v>
       </c>
-      <c r="Y15" s="20">
+      <c r="Y15" s="17">
         <f>الحاوية12!D14</f>
         <v>26000</v>
       </c>
-      <c r="Z15" s="20">
+      <c r="Z15" s="17">
         <f>الحاوية13!D14</f>
         <v>26000</v>
       </c>
-      <c r="AA15" s="20">
+      <c r="AA15" s="17">
         <f>الحاوية14!D14</f>
         <v>26000</v>
       </c>
-      <c r="AB15" s="20">
+      <c r="AB15" s="17">
         <f>الحاوية15!D14</f>
         <v>5035</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AC15" s="17">
         <f>الحاوية16!D14</f>
         <v>24605</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AD15" s="17">
         <f>الحاوية17!D14</f>
         <v>25935</v>
       </c>
-      <c r="AE15" s="20">
+      <c r="AE15" s="17">
         <f>ثروت1!D14</f>
         <v>6570</v>
       </c>
-      <c r="AF15" s="20">
+      <c r="AF15" s="17">
         <f>ثروت2!D14</f>
         <v>8673.5</v>
       </c>
-      <c r="AG15" s="20">
+      <c r="AG15" s="17">
         <f>'الحاوية 19'!D14</f>
         <v>25555</v>
       </c>
@@ -2543,87 +2543,87 @@
         <v>65</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="M16" s="18" t="str">
+      <c r="M16" s="15" t="str">
         <f>'الحاوية الاولى'!C15</f>
         <v>سعر الكيلو</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="17">
         <f>'الحاوية الاولى'!D15</f>
         <v>33.5</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="17">
         <f>'الحاوية الثانية'!D15</f>
         <v>34</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="17">
         <f>'الحاوية الثالثة'!D15</f>
         <v>36</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="17">
         <f>'الحاوية الرابعة'!D15</f>
         <v>36</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="17">
         <f>'الحاوية الخامسة'!D15</f>
         <v>36</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="17">
         <f>'الحاوية السادسة'!D15</f>
         <v>36</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="17">
         <f>'الحاوية 7'!D15</f>
         <v>36</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="17">
         <f>'الحاوية 8'!D15</f>
         <v>36</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="17">
         <f>'الحاوية 9'!D15</f>
         <v>36</v>
       </c>
-      <c r="W16" s="20">
+      <c r="W16" s="17">
         <f>'الحاوية 10'!D15</f>
         <v>36</v>
       </c>
-      <c r="X16" s="20">
+      <c r="X16" s="17">
         <f>الحاوية11!D15</f>
         <v>36</v>
       </c>
-      <c r="Y16" s="20">
+      <c r="Y16" s="17">
         <f>الحاوية12!D15</f>
         <v>36</v>
       </c>
-      <c r="Z16" s="20">
+      <c r="Z16" s="17">
         <f>الحاوية13!D15</f>
         <v>36</v>
       </c>
-      <c r="AA16" s="20">
+      <c r="AA16" s="17">
         <f>الحاوية14!D15</f>
         <v>36</v>
       </c>
-      <c r="AB16" s="20">
+      <c r="AB16" s="17">
         <f>الحاوية15!D15</f>
         <v>36</v>
       </c>
-      <c r="AC16" s="20">
+      <c r="AC16" s="17">
         <f>الحاوية16!D15</f>
         <v>34</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AD16" s="17">
         <f>الحاوية17!D15</f>
         <v>36</v>
       </c>
-      <c r="AE16" s="20">
+      <c r="AE16" s="17">
         <f>ثروت1!D15</f>
         <v>36</v>
       </c>
-      <c r="AF16" s="20">
+      <c r="AF16" s="17">
         <f>ثروت2!D15</f>
         <v>36</v>
       </c>
-      <c r="AG16" s="20">
+      <c r="AG16" s="17">
         <f>'الحاوية 19'!D15</f>
         <v>30.88</v>
       </c>
@@ -2667,87 +2667,87 @@
         <v>65</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="M17" s="18" t="str">
+      <c r="M17" s="15" t="str">
         <f>'الحاوية الاولى'!C16</f>
         <v>اجمالي سعر الحاوية</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="17">
         <f>'الحاوية الاولى'!D16</f>
         <v>871000</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="17">
         <f>'الحاوية الثانية'!D16</f>
         <v>884000</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="17">
         <f>'الحاوية الثالثة'!D16</f>
         <v>919980</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="17">
         <f>'الحاوية الرابعة'!D16</f>
         <v>919980</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="17">
         <f>'الحاوية الخامسة'!D16</f>
         <v>919980</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="17">
         <f>'الحاوية السادسة'!D16</f>
         <v>919980</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="17">
         <f>'الحاوية 7'!D16</f>
         <v>919980</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="17">
         <f>'الحاوية 8'!D16</f>
         <v>919980</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="17">
         <f>'الحاوية 9'!D16</f>
         <v>919980</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="17">
         <f>'الحاوية 10'!D16</f>
         <v>919980</v>
       </c>
-      <c r="X17" s="20">
+      <c r="X17" s="17">
         <f>الحاوية11!D16</f>
         <v>919980</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Y17" s="17">
         <f>الحاوية12!D16</f>
         <v>936000</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="Z17" s="17">
         <f>الحاوية13!D16</f>
         <v>936000</v>
       </c>
-      <c r="AA17" s="20">
+      <c r="AA17" s="17">
         <f>الحاوية14!D16</f>
         <v>936000</v>
       </c>
-      <c r="AB17" s="20">
+      <c r="AB17" s="17">
         <f>الحاوية15!D16</f>
         <v>181260</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AC17" s="17">
         <f>الحاوية16!D16</f>
         <v>836570</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AD17" s="17">
         <f>الحاوية17!D16</f>
         <v>933660</v>
       </c>
-      <c r="AE17" s="20">
+      <c r="AE17" s="17">
         <f>ثروت1!D16</f>
         <v>236520</v>
       </c>
-      <c r="AF17" s="20">
+      <c r="AF17" s="17">
         <f>ثروت2!D16</f>
         <v>312246</v>
       </c>
-      <c r="AG17" s="20">
+      <c r="AG17" s="17">
         <f>'الحاوية 19'!D16</f>
         <v>789138.4</v>
       </c>
@@ -2792,87 +2792,87 @@
         <v>0</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="M18" s="18" t="str">
+      <c r="M18" s="15" t="str">
         <f>'الحاوية الاولى'!C17</f>
         <v>اجرة تحميل</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="17">
         <f>'الحاوية الاولى'!D17</f>
         <v>1200</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="17">
         <f>'الحاوية الثانية'!D17</f>
         <v>1200</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="17">
         <f>'الحاوية الثالثة'!D17</f>
         <v>1200</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="17">
         <f>'الحاوية الرابعة'!D17</f>
         <v>1200</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="17">
         <f>'الحاوية الخامسة'!D17</f>
         <v>1200</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="17">
         <f>'الحاوية السادسة'!D17</f>
         <v>1200</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="17">
         <f>'الحاوية 7'!D17</f>
         <v>1200</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="17">
         <f>'الحاوية 8'!D17</f>
         <v>1200</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="17">
         <f>'الحاوية 9'!D17</f>
         <v>1200</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="17">
         <f>'الحاوية 10'!D17</f>
         <v>1200</v>
       </c>
-      <c r="X18" s="20">
+      <c r="X18" s="17">
         <f>الحاوية11!D17</f>
         <v>1200</v>
       </c>
-      <c r="Y18" s="20">
+      <c r="Y18" s="17">
         <f>الحاوية12!D17</f>
         <v>1200</v>
       </c>
-      <c r="Z18" s="20">
+      <c r="Z18" s="17">
         <f>الحاوية13!D17</f>
         <v>1200</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA18" s="17">
         <f>الحاوية14!D17</f>
         <v>1200</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB18" s="17">
         <f>الحاوية15!D17</f>
         <v>250</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="17">
         <f>الحاوية16!D17</f>
         <v>1200</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD18" s="17">
         <f>الحاوية17!D17</f>
         <v>1200</v>
       </c>
-      <c r="AE18" s="20" t="str">
+      <c r="AE18" s="17" t="str">
         <f>ثروت1!D17</f>
         <v>عمال الشركة</v>
       </c>
-      <c r="AF18" s="20" t="str">
+      <c r="AF18" s="17" t="str">
         <f>ثروت2!D17</f>
         <v>عمال الشركة</v>
       </c>
-      <c r="AG18" s="20">
+      <c r="AG18" s="17">
         <f>'الحاوية 19'!D17</f>
         <v>1200</v>
       </c>
@@ -2916,87 +2916,87 @@
         <v>65</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="M19" s="18" t="str">
+      <c r="M19" s="15" t="str">
         <f>'الحاوية الاولى'!C18</f>
         <v>اجرة بسكول</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="17">
         <f>'الحاوية الاولى'!D18</f>
         <v>65</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="17">
         <f>'الحاوية الثانية'!D18</f>
         <v>65</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="17">
         <f>'الحاوية الثالثة'!D18</f>
         <v>65</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="17">
         <f>'الحاوية الرابعة'!D18</f>
         <v>65</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="17">
         <f>'الحاوية الخامسة'!D18</f>
         <v>65</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="17">
         <f>'الحاوية السادسة'!D18</f>
         <v>65</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="17">
         <f>'الحاوية 7'!D18</f>
         <v>65</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="17">
         <f>'الحاوية 8'!D18</f>
         <v>65</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="17">
         <f>'الحاوية 9'!D18</f>
         <v>65</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="17">
         <f>'الحاوية 10'!D18</f>
         <v>65</v>
       </c>
-      <c r="X19" s="20">
+      <c r="X19" s="17">
         <f>الحاوية11!D18</f>
         <v>65</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="17">
         <f>الحاوية12!D18</f>
         <v>65</v>
       </c>
-      <c r="Z19" s="20">
+      <c r="Z19" s="17">
         <f>الحاوية13!D18</f>
         <v>65</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="17">
         <f>الحاوية14!D18</f>
         <v>65</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="AB19" s="17">
         <f>الحاوية15!D18</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AC19" s="17">
         <f>الحاوية16!D18</f>
         <v>65</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AD19" s="17">
         <f>الحاوية17!D18</f>
         <v>65</v>
       </c>
-      <c r="AE19" s="20" t="str">
+      <c r="AE19" s="17" t="str">
         <f>ثروت1!D18</f>
         <v>لا يوجد</v>
       </c>
-      <c r="AF19" s="20" t="str">
+      <c r="AF19" s="17" t="str">
         <f>ثروت2!D18</f>
         <v>لا يوجد</v>
       </c>
-      <c r="AG19" s="20">
+      <c r="AG19" s="17">
         <f>'الحاوية 19'!D18</f>
         <v>65</v>
       </c>
@@ -3039,87 +3039,87 @@
         <v>65</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="M20" s="18" t="str">
+      <c r="M20" s="15" t="str">
         <f>'الحاوية الاولى'!C19</f>
         <v>اجمالي الحاوية</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="17">
         <f>'الحاوية الاولى'!D19</f>
         <v>0</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="17">
         <f>'الحاوية الثانية'!D19</f>
         <v>0</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="17">
         <f>'الحاوية الثالثة'!D19</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="17">
         <f>'الحاوية الرابعة'!D19</f>
         <v>0</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="17">
         <f>'الحاوية الخامسة'!D19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="17">
         <f>'الحاوية السادسة'!D19</f>
         <v>0</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="17">
         <f>'الحاوية 7'!D19</f>
         <v>0</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="17">
         <f>'الحاوية 8'!D19</f>
         <v>0</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="17">
         <f>'الحاوية 9'!D19</f>
         <v>0</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="17">
         <f>'الحاوية 10'!D19</f>
         <v>0</v>
       </c>
-      <c r="X20" s="20">
+      <c r="X20" s="17">
         <f>الحاوية11!D19</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="17">
         <f>الحاوية12!D19</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="20">
+      <c r="Z20" s="17">
         <f>الحاوية13!D19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="17">
         <f>الحاوية14!D19</f>
         <v>0</v>
       </c>
-      <c r="AB20" s="20">
+      <c r="AB20" s="17">
         <f>الحاوية15!D19</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AC20" s="17">
         <f>الحاوية16!D19</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AD20" s="17">
         <f>الحاوية17!D19</f>
         <v>0</v>
       </c>
-      <c r="AE20" s="20">
+      <c r="AE20" s="17">
         <f>ثروت1!D19</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="20">
+      <c r="AF20" s="17">
         <f>ثروت2!D19</f>
         <v>0</v>
       </c>
-      <c r="AG20" s="20">
+      <c r="AG20" s="17">
         <f>'الحاوية 19'!D19</f>
         <v>0</v>
       </c>
@@ -3238,10 +3238,10 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="11">
         <f>SUBTOTAL(9,C4:C23)</f>
         <v>193</v>
@@ -3315,7 +3315,7 @@
     <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="47" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="17" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3335,11 +3335,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3550,11 +3550,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3765,11 +3765,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -3980,11 +3980,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -4195,11 +4195,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -4410,11 +4410,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -4625,11 +4625,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -4839,11 +4839,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -5055,11 +5055,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -5271,11 +5271,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -5483,11 +5483,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -5702,11 +5702,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -5917,11 +5917,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -6134,11 +6134,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -6353,11 +6353,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -6569,11 +6569,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -6785,11 +6785,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -7001,11 +7001,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -7216,11 +7216,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -7431,11 +7431,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
